--- a/01_Input/00_CO Validation/North Macedonia - Energy Projects.xlsx
+++ b/01_Input/00_CO Validation/North Macedonia - Energy Projects.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27002"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27016"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="548" documentId="11_0354F80925A16C94F44275D1D09B3032E8EAA263" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{899CD50E-EBA5-4E4C-B757-EFBEAC403F48}"/>
+  <xr:revisionPtr revIDLastSave="577" documentId="11_0354F80925A16C94F44275D1D09B3032E8EAA263" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{83EC4935-CB8A-46BD-BB1F-E3306A6680D9}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,6 +15,9 @@
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="110">
   <si>
     <t>Project ID</t>
   </si>
@@ -39,142 +42,184 @@
     <t>Title</t>
   </si>
   <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>Budget</t>
+  </si>
+  <si>
+    <t>Beneficiary Category</t>
+  </si>
+  <si>
+    <t>Indicator</t>
+  </si>
+  <si>
+    <t>Baseline</t>
+  </si>
+  <si>
+    <t>Target</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Donors</t>
+  </si>
+  <si>
+    <t>Gender (% female)</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Tag</t>
+  </si>
+  <si>
+    <t>SEH Taxonomy</t>
+  </si>
+  <si>
+    <t>RISE Taxonomy</t>
+  </si>
+  <si>
+    <t>Flagship</t>
+  </si>
+  <si>
+    <t>Indirect Category</t>
+  </si>
+  <si>
+    <t>Indirect Taxonomy</t>
+  </si>
+  <si>
+    <t>Addressing food and energy crisis in North Macedonia</t>
+  </si>
+  <si>
+    <t>http://open.undp.org/projects/00144953</t>
+  </si>
+  <si>
+    <t>Accelerating just energy transition</t>
+  </si>
+  <si>
+    <t>Energy Efficiency</t>
+  </si>
+  <si>
+    <t>Green Finance Facility to Improve Air Quality and Combat Climate Change in North Macedonia</t>
+  </si>
+  <si>
+    <t>https://open.undp.org/projects/00144270</t>
+  </si>
+  <si>
+    <t>Expected annual energy saved</t>
+  </si>
+  <si>
+    <t>81,000 MWh tonnes</t>
+  </si>
+  <si>
+    <t>Close the gap on energy access</t>
+  </si>
+  <si>
+    <t>Renewable Energy</t>
+  </si>
+  <si>
+    <t>GHG Emissions Reduction</t>
+  </si>
+  <si>
+    <t>Estimated GHG emissions avoided (tCO2e/year)</t>
+  </si>
+  <si>
+    <t>Energy (MW added)</t>
+  </si>
+  <si>
+    <t>Renewable capacity added</t>
+  </si>
+  <si>
+    <t>Medium Enterprises</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number (sex disaggregated) of sub-loans (RE/EE) extended by PFIs </t>
+  </si>
+  <si>
+    <t>Finance</t>
+  </si>
+  <si>
+    <t>Total value of sub-loans extended</t>
+  </si>
+  <si>
+    <t>$30.39 M</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>Total value of performance- based payments allocated:</t>
+  </si>
+  <si>
+    <t>USD 3.039 M</t>
+  </si>
+  <si>
+    <t>Capacity Training</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number (sex disaggregated) of loan officers trained to assess RE/EE project loan applications </t>
+  </si>
+  <si>
+    <t>Number of loan officers trained on gender-disaggregated data collection and analysis</t>
+  </si>
+  <si>
+    <t>Campaign Participant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number (sex-disaggregated) of individuals reached through marketing efforts  </t>
+  </si>
+  <si>
+    <t>Expected annual energy saved  (MWh)</t>
+  </si>
+  <si>
+    <t>5,200 MWh</t>
+  </si>
+  <si>
+    <t>Estimated GHG emissions avoided tCO2e/year</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total value of loans extended: </t>
+  </si>
+  <si>
+    <t>USD 6.5 M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number (sex-disaggregated) of loans extended by banks </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number (sex-disaggregated) of loan officers trained to assess RE/EE project loan applications </t>
+  </si>
+  <si>
+    <t>Tackling Air Pollution in Skopje</t>
+  </si>
+  <si>
+    <t>https://open.undp.org/projects/00110061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calculation of emissions </t>
+  </si>
+  <si>
+    <t>5.56t in 2019</t>
+  </si>
+  <si>
     <t>Output Title</t>
   </si>
   <si>
-    <t>Link</t>
-  </si>
-  <si>
-    <t>Budget</t>
-  </si>
-  <si>
-    <t>Beneficiary Category</t>
-  </si>
-  <si>
-    <t>Indicator</t>
-  </si>
-  <si>
-    <t>Baseline</t>
-  </si>
-  <si>
-    <t>Target</t>
-  </si>
-  <si>
-    <t>Notes</t>
-  </si>
-  <si>
-    <t>Donors</t>
-  </si>
-  <si>
-    <t>Gender (% female)</t>
-  </si>
-  <si>
-    <t>Category</t>
-  </si>
-  <si>
     <t>Comments</t>
   </si>
   <si>
-    <t>Tag</t>
-  </si>
-  <si>
-    <t>SEH Taxonomy</t>
-  </si>
-  <si>
-    <t>RISE Taxonomy</t>
-  </si>
-  <si>
-    <t>Flagship</t>
-  </si>
-  <si>
-    <t>Indirect Category</t>
-  </si>
-  <si>
-    <t>Indirect Taxonomy</t>
-  </si>
-  <si>
-    <t>Addressing food and energy crisis in North Macedonia</t>
-  </si>
-  <si>
-    <t>http://open.undp.org/projects/00144953</t>
-  </si>
-  <si>
-    <t>Accelerating just energy transition</t>
-  </si>
-  <si>
-    <t>Energy Efficiency</t>
-  </si>
-  <si>
-    <t>Green Finance Facility to Improve Air Quality and Combat Climate Change in North Macedonia</t>
+    <t>USD 44.4 M</t>
+  </si>
+  <si>
+    <t>Scale up energy finance</t>
   </si>
   <si>
     <t>Output 1: SMEs have greater access to finance for accelerating a transition to renewable energy and energy efficiency solutions. No. in Quantum: 00132098</t>
   </si>
   <si>
-    <t>https://open.undp.org/projects/00144270</t>
-  </si>
-  <si>
     <t>Other Energy Services</t>
-  </si>
-  <si>
-    <t>Expected annual energy saved</t>
-  </si>
-  <si>
-    <t>81,000 MWh tonnes</t>
-  </si>
-  <si>
-    <t>Close the gap on energy access</t>
-  </si>
-  <si>
-    <t>Renewable Energy</t>
-  </si>
-  <si>
-    <t>GHG Emissions Reduction</t>
-  </si>
-  <si>
-    <t>Estimated GHG emissions avoided (tCO2e/year)</t>
-  </si>
-  <si>
-    <t>Energy (MW added)</t>
-  </si>
-  <si>
-    <t>Renewable capacity added</t>
-  </si>
-  <si>
-    <t>Medium Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number (sex disaggregated) of sub-loans (RE/EE) extended by PFIs </t>
-  </si>
-  <si>
-    <t>Total value of sub-loans extended</t>
-  </si>
-  <si>
-    <t>$30.39 M</t>
-  </si>
-  <si>
-    <t>f</t>
-  </si>
-  <si>
-    <t>Total value of performance- based payments allocated:</t>
-  </si>
-  <si>
-    <t>USD 3.039 M</t>
-  </si>
-  <si>
-    <t>Capacity Training</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number (sex disaggregated) of loan officers trained to assess RE/EE project loan applications </t>
-  </si>
-  <si>
-    <t>Number of loan officers trained on gender-disaggregated data collection and analysis</t>
-  </si>
-  <si>
-    <t>Campaign Participant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number (sex-disaggregated) of individuals reached through marketing efforts  </t>
   </si>
   <si>
     <t>"Output 2: Target groups/ households, especially women and female headed households have greater access to finance for accelerating a transition to RE and EE solutions. No. in Quantum: 00132099
@@ -184,46 +229,10 @@
     <t xml:space="preserve">Expected annual energy saved </t>
   </si>
   <si>
-    <t>5,200 MWh</t>
-  </si>
-  <si>
-    <t>Estimated GHG emissions avoided tCO2e/year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total value of loans extended: </t>
-  </si>
-  <si>
-    <t>USD 6.5 M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number (sex-disaggregated) of loans extended by banks </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number (sex-disaggregated) of loan officers trained to assess RE/EE project loan applications </t>
-  </si>
-  <si>
-    <t>Tackling Air Pollution in Skopje</t>
-  </si>
-  <si>
-    <t>https://open.undp.org/projects/00110061</t>
+    <t>USD 2.15 mil</t>
   </si>
   <si>
     <t>Low emission district concept demonstrated (Decrease of polluting emissions from the selected area)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calculation of emissions </t>
-  </si>
-  <si>
-    <t>5.56t in 2019</t>
-  </si>
-  <si>
-    <t>USD 44.4 M</t>
-  </si>
-  <si>
-    <t>Scale up energy finance</t>
-  </si>
-  <si>
-    <t>USD 2.15 mil</t>
   </si>
   <si>
     <t>CO2 Emissions Reduction</t>
@@ -481,7 +490,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -590,43 +599,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -635,7 +607,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -727,36 +699,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -766,9 +708,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -794,15 +733,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -815,24 +748,42 @@
     <xf numFmtId="3" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1139,54 +1090,53 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D1B1400-35FF-426D-9AE6-BEF15E5709CF}">
-  <dimension ref="A1:U24"/>
+  <dimension ref="A1:S23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="B11" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="3" width="40" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" customWidth="1"/>
-    <col min="7" max="7" width="40" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" customWidth="1"/>
-    <col min="10" max="10" width="32.7109375" customWidth="1"/>
-    <col min="14" max="14" width="46" customWidth="1"/>
+    <col min="2" max="2" width="40" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" customWidth="1"/>
+    <col min="6" max="6" width="40" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" customWidth="1"/>
+    <col min="9" max="9" width="32.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
-      <c r="A1" s="45" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="45" t="s">
+    <row r="1" spans="1:19">
+      <c r="A1" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="45" t="s">
+      <c r="D1" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="45" t="s">
+      <c r="E1" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="45" t="s">
+      <c r="F1" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="45" t="s">
+      <c r="G1" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="45" t="s">
+      <c r="H1" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="45" t="s">
+      <c r="I1" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="45" t="s">
+      <c r="J1" s="30" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="30" t="s">
@@ -1195,13 +1145,13 @@
       <c r="L1" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="30" t="s">
+      <c r="M1" s="36" t="s">
         <v>12</v>
       </c>
       <c r="N1" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="46" t="s">
+      <c r="O1" s="30" t="s">
         <v>14</v>
       </c>
       <c r="P1" s="30" t="s">
@@ -1213,777 +1163,689 @@
       <c r="R1" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="30" t="s">
+      <c r="S1" s="36"/>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="A2" s="36">
+        <v>144953</v>
+      </c>
+      <c r="B2" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="30" t="s">
+      <c r="C2" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="46"/>
-    </row>
-    <row r="2" spans="1:21">
-      <c r="A2" s="46">
-        <v>144953</v>
-      </c>
-      <c r="B2" s="46" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="47" t="s">
+      <c r="D2" s="38">
+        <v>95000</v>
+      </c>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O2" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="48">
-        <v>95000</v>
-      </c>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="50"/>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46" t="s">
+      <c r="P2" s="36"/>
+      <c r="Q2" s="36"/>
+      <c r="R2" s="36"/>
+      <c r="S2" s="36"/>
+    </row>
+    <row r="3" spans="1:19" ht="64.5" customHeight="1">
+      <c r="A3" s="36">
+        <v>144270</v>
+      </c>
+      <c r="B3" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="Q2" s="46" t="s">
+      <c r="C3" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="R2" s="46"/>
-      <c r="S2" s="46"/>
-      <c r="T2" s="46"/>
-      <c r="U2" s="46"/>
-    </row>
-    <row r="3" spans="1:21" ht="64.5" customHeight="1">
-      <c r="A3" s="46">
-        <v>144270</v>
-      </c>
-      <c r="B3" s="46" t="s">
+      <c r="D3" s="38">
+        <v>44400000</v>
+      </c>
+      <c r="E3" s="38"/>
+      <c r="F3" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="71" t="s">
+      <c r="G3" s="42">
+        <v>0</v>
+      </c>
+      <c r="H3" s="43"/>
+      <c r="I3" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="47" t="s">
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="48">
-        <v>44400000</v>
-      </c>
-      <c r="F3" s="48" t="s">
+      <c r="O3" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="52" t="s">
+      <c r="P3" s="36"/>
+      <c r="Q3" s="30"/>
+      <c r="R3" s="30"/>
+      <c r="S3" s="36"/>
+    </row>
+    <row r="4" spans="1:19" ht="15" customHeight="1">
+      <c r="A4" s="38"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="53">
-        <v>0</v>
-      </c>
-      <c r="I3" s="54"/>
-      <c r="J3" s="55" t="s">
+      <c r="F4" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="46"/>
-      <c r="N3" s="50"/>
-      <c r="O3" s="46"/>
-      <c r="P3" s="46" t="s">
+      <c r="G4" s="42">
+        <v>0</v>
+      </c>
+      <c r="H4" s="45">
+        <v>75654</v>
+      </c>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="36"/>
+      <c r="N4" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O4" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="P4" s="36"/>
+      <c r="Q4" s="30"/>
+      <c r="R4" s="30"/>
+      <c r="S4" s="36"/>
+    </row>
+    <row r="5" spans="1:19" ht="15" customHeight="1">
+      <c r="A5" s="38"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="Q3" s="46" t="s">
+      <c r="F5" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="R3" s="46"/>
-      <c r="S3" s="30"/>
-      <c r="T3" s="30"/>
-      <c r="U3" s="46"/>
-    </row>
-    <row r="4" spans="1:21" ht="15" customHeight="1">
-      <c r="A4" s="48"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="48" t="s">
+      <c r="G5" s="42">
+        <v>0</v>
+      </c>
+      <c r="H5" s="47">
+        <v>8.1</v>
+      </c>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="36"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O5" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="P5" s="36"/>
+      <c r="Q5" s="30"/>
+      <c r="R5" s="30"/>
+      <c r="S5" s="36"/>
+    </row>
+    <row r="6" spans="1:19" ht="40.5" customHeight="1">
+      <c r="A6" s="38"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="52" t="s">
+      <c r="F6" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="H4" s="53">
-        <v>0</v>
-      </c>
-      <c r="I4" s="56">
-        <v>75654</v>
-      </c>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="46"/>
-      <c r="N4" s="50"/>
-      <c r="O4" s="46"/>
-      <c r="P4" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q4" s="46" t="s">
-        <v>23</v>
-      </c>
-      <c r="R4" s="46"/>
-      <c r="S4" s="30"/>
-      <c r="T4" s="30"/>
-      <c r="U4" s="46"/>
-    </row>
-    <row r="5" spans="1:21" ht="15" customHeight="1">
-      <c r="A5" s="48"/>
-      <c r="B5" s="51"/>
-      <c r="C5" s="72"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="48" t="s">
+      <c r="G6" s="42">
+        <v>0</v>
+      </c>
+      <c r="H6" s="47">
+        <v>105</v>
+      </c>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="36"/>
+      <c r="N6" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O6" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="P6" s="36"/>
+      <c r="Q6" s="30"/>
+      <c r="R6" s="30"/>
+      <c r="S6" s="36"/>
+    </row>
+    <row r="7" spans="1:19" ht="24.75" customHeight="1">
+      <c r="A7" s="38"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="57" t="s">
+      <c r="F7" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="53">
-        <v>0</v>
-      </c>
-      <c r="I5" s="58">
-        <v>8.1</v>
-      </c>
-      <c r="J5" s="46"/>
-      <c r="K5" s="46"/>
-      <c r="L5" s="46"/>
-      <c r="M5" s="46"/>
-      <c r="N5" s="50"/>
-      <c r="O5" s="46"/>
-      <c r="P5" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q5" s="46" t="s">
-        <v>23</v>
-      </c>
-      <c r="R5" s="46"/>
-      <c r="S5" s="30"/>
-      <c r="T5" s="30"/>
-      <c r="U5" s="46"/>
-    </row>
-    <row r="6" spans="1:21" ht="40.5" customHeight="1">
-      <c r="A6" s="48"/>
-      <c r="B6" s="51"/>
-      <c r="C6" s="72"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="48" t="s">
+      <c r="G7" s="42">
+        <v>0</v>
+      </c>
+      <c r="H7" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="G6" s="57" t="s">
+      <c r="J7" s="36"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="36"/>
+      <c r="M7" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="H6" s="53">
-        <v>0</v>
-      </c>
-      <c r="I6" s="58">
-        <v>105</v>
-      </c>
-      <c r="J6" s="46"/>
-      <c r="K6" s="46"/>
-      <c r="L6" s="46"/>
-      <c r="M6" s="46"/>
-      <c r="N6" s="50"/>
-      <c r="O6" s="46"/>
-      <c r="P6" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q6" s="46" t="s">
-        <v>23</v>
-      </c>
-      <c r="R6" s="46"/>
-      <c r="S6" s="30"/>
-      <c r="T6" s="30"/>
-      <c r="U6" s="46"/>
-    </row>
-    <row r="7" spans="1:21" ht="24.75" customHeight="1">
-      <c r="A7" s="48"/>
-      <c r="B7" s="51"/>
-      <c r="C7" s="72"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="48" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7" s="52" t="s">
+      <c r="N7" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O7" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="P7" s="36"/>
+      <c r="Q7" s="30"/>
+      <c r="R7" s="30"/>
+      <c r="S7" s="36"/>
+    </row>
+    <row r="8" spans="1:19" ht="27.75" customHeight="1">
+      <c r="A8" s="38"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="H7" s="53">
-        <v>0</v>
-      </c>
-      <c r="I7" s="59"/>
-      <c r="J7" s="55" t="s">
+      <c r="G8" s="42">
+        <v>0</v>
+      </c>
+      <c r="H8" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="K7" s="46"/>
-      <c r="L7" s="46"/>
-      <c r="M7" s="46"/>
-      <c r="N7" s="50"/>
-      <c r="O7" s="46" t="s">
+      <c r="J8" s="36"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="36"/>
+      <c r="M8" s="36"/>
+      <c r="N8" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O8" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="P8" s="36"/>
+      <c r="Q8" s="30"/>
+      <c r="R8" s="30"/>
+      <c r="S8" s="36"/>
+    </row>
+    <row r="9" spans="1:19" ht="55.5" customHeight="1">
+      <c r="A9" s="38"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="P7" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q7" s="46" t="s">
-        <v>23</v>
-      </c>
-      <c r="R7" s="46"/>
-      <c r="S7" s="30"/>
-      <c r="T7" s="30"/>
-      <c r="U7" s="46"/>
-    </row>
-    <row r="8" spans="1:21" ht="27.75" customHeight="1">
-      <c r="A8" s="48"/>
-      <c r="B8" s="51"/>
-      <c r="C8" s="72"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="48" t="s">
-        <v>36</v>
-      </c>
-      <c r="G8" s="52" t="s">
+      <c r="F9" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="H8" s="53">
-        <v>0</v>
-      </c>
-      <c r="I8" s="60"/>
-      <c r="J8" s="55" t="s">
+      <c r="G9" s="42">
+        <v>0</v>
+      </c>
+      <c r="H9" s="48">
+        <v>20</v>
+      </c>
+      <c r="I9" s="36"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="36"/>
+      <c r="L9" s="36"/>
+      <c r="M9" s="36"/>
+      <c r="N9" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O9" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="P9" s="36"/>
+      <c r="Q9" s="30"/>
+      <c r="R9" s="30"/>
+      <c r="S9" s="36"/>
+    </row>
+    <row r="10" spans="1:19" ht="41.25" customHeight="1">
+      <c r="A10" s="38"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="K8" s="46"/>
-      <c r="L8" s="46"/>
-      <c r="M8" s="46"/>
-      <c r="N8" s="50"/>
-      <c r="O8" s="46"/>
-      <c r="P8" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q8" s="46" t="s">
-        <v>23</v>
-      </c>
-      <c r="R8" s="46"/>
-      <c r="S8" s="30"/>
-      <c r="T8" s="30"/>
-      <c r="U8" s="46"/>
-    </row>
-    <row r="9" spans="1:21" ht="55.5" customHeight="1">
-      <c r="A9" s="48"/>
-      <c r="B9" s="51"/>
-      <c r="C9" s="72"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="48" t="s">
+      <c r="G10" s="42">
+        <v>0</v>
+      </c>
+      <c r="H10" s="48">
+        <v>20</v>
+      </c>
+      <c r="I10" s="36"/>
+      <c r="J10" s="36"/>
+      <c r="K10" s="36"/>
+      <c r="L10" s="36"/>
+      <c r="M10" s="36"/>
+      <c r="N10" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O10" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="P10" s="36"/>
+      <c r="Q10" s="30"/>
+      <c r="R10" s="30"/>
+      <c r="S10" s="36"/>
+    </row>
+    <row r="11" spans="1:19" ht="39.75" customHeight="1">
+      <c r="A11" s="38"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="G9" s="52" t="s">
+      <c r="F11" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="H9" s="53">
-        <v>0</v>
-      </c>
-      <c r="I9" s="59">
-        <v>20</v>
-      </c>
-      <c r="J9" s="46"/>
-      <c r="K9" s="46"/>
-      <c r="L9" s="46"/>
-      <c r="M9" s="46"/>
-      <c r="N9" s="50"/>
-      <c r="O9" s="46"/>
-      <c r="P9" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q9" s="46" t="s">
-        <v>23</v>
-      </c>
-      <c r="R9" s="46"/>
-      <c r="S9" s="30"/>
-      <c r="T9" s="30"/>
-      <c r="U9" s="46"/>
-    </row>
-    <row r="10" spans="1:21" ht="41.25" customHeight="1">
-      <c r="A10" s="48"/>
-      <c r="B10" s="51"/>
-      <c r="C10" s="72"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="48" t="s">
+      <c r="G11" s="42">
+        <v>0</v>
+      </c>
+      <c r="H11" s="48">
+        <v>7000</v>
+      </c>
+      <c r="I11" s="36"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="49"/>
+      <c r="L11" s="36"/>
+      <c r="M11" s="36"/>
+      <c r="N11" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O11" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="P11" s="36"/>
+      <c r="Q11" s="30"/>
+      <c r="R11" s="30"/>
+      <c r="S11" s="36"/>
+    </row>
+    <row r="12" spans="1:19" ht="27.75" customHeight="1">
+      <c r="A12" s="38"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="G12" s="42">
+        <v>0</v>
+      </c>
+      <c r="H12" s="48">
+        <v>5200</v>
+      </c>
+      <c r="I12" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="J12" s="36"/>
+      <c r="K12" s="36"/>
+      <c r="L12" s="36"/>
+      <c r="M12" s="36"/>
+      <c r="N12" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O12" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="P12" s="36"/>
+      <c r="Q12" s="30"/>
+      <c r="R12" s="30"/>
+      <c r="S12" s="36"/>
+    </row>
+    <row r="13" spans="1:19" ht="24.75" customHeight="1">
+      <c r="A13" s="38"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="G13" s="42">
+        <v>0</v>
+      </c>
+      <c r="H13" s="50">
+        <v>4856.8</v>
+      </c>
+      <c r="I13" s="36"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="36"/>
+      <c r="L13" s="36"/>
+      <c r="M13" s="36"/>
+      <c r="N13" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O13" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="P13" s="36"/>
+      <c r="Q13" s="30"/>
+      <c r="R13" s="30"/>
+      <c r="S13" s="36"/>
+    </row>
+    <row r="14" spans="1:19" ht="20.25" customHeight="1">
+      <c r="A14" s="38"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" s="51" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" s="42">
+        <v>0</v>
+      </c>
+      <c r="H14" s="48">
+        <v>2.6</v>
+      </c>
+      <c r="I14" s="36"/>
+      <c r="J14" s="36"/>
+      <c r="K14" s="36"/>
+      <c r="L14" s="36"/>
+      <c r="M14" s="36"/>
+      <c r="N14" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="O14" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="P14" s="36"/>
+      <c r="Q14" s="30"/>
+      <c r="R14" s="30"/>
+      <c r="S14" s="36"/>
+    </row>
+    <row r="15" spans="1:19" ht="20.25" customHeight="1">
+      <c r="A15" s="38"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="51" t="s">
+        <v>48</v>
+      </c>
+      <c r="G15" s="42">
+        <v>0</v>
+      </c>
+      <c r="H15" s="48"/>
+      <c r="I15" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="J15" s="36"/>
+      <c r="K15" s="36"/>
+      <c r="L15" s="36"/>
+      <c r="M15" s="36"/>
+      <c r="N15" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O15" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="P15" s="36"/>
+      <c r="Q15" s="30"/>
+      <c r="R15" s="30"/>
+      <c r="S15" s="36"/>
+    </row>
+    <row r="16" spans="1:19" ht="27">
+      <c r="A16" s="38"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16" s="51" t="s">
+        <v>50</v>
+      </c>
+      <c r="G16" s="42">
+        <v>0</v>
+      </c>
+      <c r="H16" s="48">
+        <v>650</v>
+      </c>
+      <c r="I16" s="36"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="36"/>
+      <c r="L16" s="36"/>
+      <c r="M16" s="36"/>
+      <c r="N16" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O16" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="P16" s="36"/>
+      <c r="Q16" s="30"/>
+      <c r="R16" s="30"/>
+      <c r="S16" s="36"/>
+    </row>
+    <row r="17" spans="1:19" ht="27">
+      <c r="A17" s="38"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="F17" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="G17" s="42">
+        <v>0</v>
+      </c>
+      <c r="H17" s="48">
+        <v>20</v>
+      </c>
+      <c r="I17" s="36"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="36"/>
+      <c r="L17" s="36"/>
+      <c r="M17" s="36"/>
+      <c r="N17" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O17" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="P17" s="36"/>
+      <c r="Q17" s="30"/>
+      <c r="R17" s="30"/>
+      <c r="S17" s="36"/>
+    </row>
+    <row r="18" spans="1:19" ht="27">
+      <c r="A18" s="38"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="F18" s="51" t="s">
+        <v>42</v>
+      </c>
+      <c r="G18" s="42">
+        <v>0</v>
+      </c>
+      <c r="H18" s="48">
+        <v>20</v>
+      </c>
+      <c r="I18" s="36"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="36"/>
+      <c r="L18" s="36"/>
+      <c r="M18" s="36"/>
+      <c r="N18" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O18" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="P18" s="36"/>
+      <c r="Q18" s="30"/>
+      <c r="R18" s="30"/>
+      <c r="S18" s="36"/>
+    </row>
+    <row r="19" spans="1:19" ht="27">
+      <c r="A19" s="38"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="G10" s="52" t="s">
-        <v>45</v>
-      </c>
-      <c r="H10" s="53">
-        <v>0</v>
-      </c>
-      <c r="I10" s="59">
-        <v>20</v>
-      </c>
-      <c r="J10" s="46"/>
-      <c r="K10" s="46"/>
-      <c r="L10" s="46"/>
-      <c r="M10" s="46"/>
-      <c r="N10" s="50"/>
-      <c r="O10" s="46"/>
-      <c r="P10" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q10" s="46" t="s">
-        <v>23</v>
-      </c>
-      <c r="R10" s="46"/>
-      <c r="S10" s="30"/>
-      <c r="T10" s="30"/>
-      <c r="U10" s="46"/>
-    </row>
-    <row r="11" spans="1:21" ht="39.75" customHeight="1">
-      <c r="A11" s="48"/>
-      <c r="B11" s="51"/>
-      <c r="C11" s="73"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="48" t="s">
-        <v>46</v>
-      </c>
-      <c r="G11" s="52" t="s">
-        <v>47</v>
-      </c>
-      <c r="H11" s="53">
-        <v>0</v>
-      </c>
-      <c r="I11" s="59">
-        <v>7000</v>
-      </c>
-      <c r="J11" s="46"/>
-      <c r="K11" s="46"/>
-      <c r="L11" s="61"/>
-      <c r="M11" s="46"/>
-      <c r="N11" s="50"/>
-      <c r="O11" s="46"/>
-      <c r="P11" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q11" s="46" t="s">
-        <v>23</v>
-      </c>
-      <c r="R11" s="46"/>
-      <c r="S11" s="30"/>
-      <c r="T11" s="30"/>
-      <c r="U11" s="46"/>
-    </row>
-    <row r="12" spans="1:21" ht="27.75" customHeight="1">
-      <c r="A12" s="48"/>
-      <c r="B12" s="51"/>
-      <c r="C12" s="62" t="s">
-        <v>48</v>
-      </c>
-      <c r="D12" s="51"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="52" t="s">
-        <v>49</v>
-      </c>
-      <c r="H12" s="53">
-        <v>0</v>
-      </c>
-      <c r="I12" s="59"/>
-      <c r="J12" s="55" t="s">
-        <v>50</v>
-      </c>
-      <c r="K12" s="46"/>
-      <c r="L12" s="46"/>
-      <c r="M12" s="46"/>
-      <c r="N12" s="50"/>
-      <c r="O12" s="46"/>
-      <c r="P12" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q12" s="46" t="s">
-        <v>23</v>
-      </c>
-      <c r="R12" s="46"/>
-      <c r="S12" s="30"/>
-      <c r="T12" s="30"/>
-      <c r="U12" s="46"/>
-    </row>
-    <row r="13" spans="1:21" ht="24.75" customHeight="1">
-      <c r="A13" s="48"/>
-      <c r="B13" s="51"/>
-      <c r="C13" s="62"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="48" t="s">
-        <v>32</v>
-      </c>
-      <c r="G13" s="52" t="s">
-        <v>51</v>
-      </c>
-      <c r="H13" s="53">
-        <v>0</v>
-      </c>
-      <c r="I13" s="63">
-        <v>4856.8</v>
-      </c>
-      <c r="J13" s="46"/>
-      <c r="K13" s="46"/>
-      <c r="L13" s="46"/>
-      <c r="M13" s="46"/>
-      <c r="N13" s="50"/>
-      <c r="O13" s="46"/>
-      <c r="P13" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q13" s="46" t="s">
-        <v>23</v>
-      </c>
-      <c r="R13" s="46"/>
-      <c r="S13" s="30"/>
-      <c r="T13" s="30"/>
-      <c r="U13" s="46"/>
-    </row>
-    <row r="14" spans="1:21" ht="20.25" customHeight="1">
-      <c r="A14" s="48"/>
-      <c r="B14" s="51"/>
-      <c r="C14" s="62"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="48" t="s">
-        <v>34</v>
-      </c>
-      <c r="G14" s="64" t="s">
-        <v>35</v>
-      </c>
-      <c r="H14" s="53">
-        <v>0</v>
-      </c>
-      <c r="I14" s="59">
-        <v>2.6</v>
-      </c>
-      <c r="J14" s="46"/>
-      <c r="K14" s="46"/>
-      <c r="L14" s="46"/>
-      <c r="M14" s="46"/>
-      <c r="N14" s="50"/>
-      <c r="O14" s="46"/>
-      <c r="P14" s="46" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q14" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="R14" s="46"/>
-      <c r="S14" s="30"/>
-      <c r="T14" s="30"/>
-      <c r="U14" s="46"/>
-    </row>
-    <row r="15" spans="1:21" ht="20.25" customHeight="1">
-      <c r="A15" s="48"/>
-      <c r="B15" s="51"/>
-      <c r="C15" s="62"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="65"/>
-      <c r="G15" s="64" t="s">
+      <c r="F19" s="51" t="s">
+        <v>44</v>
+      </c>
+      <c r="G19" s="42">
+        <v>0</v>
+      </c>
+      <c r="H19" s="53">
+        <v>1000</v>
+      </c>
+      <c r="I19" s="36"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="36"/>
+      <c r="L19" s="36"/>
+      <c r="M19" s="36"/>
+      <c r="N19" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O19" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="P19" s="36"/>
+      <c r="Q19" s="30"/>
+      <c r="R19" s="30"/>
+      <c r="S19" s="36"/>
+    </row>
+    <row r="20" spans="1:19" ht="45.75">
+      <c r="A20" s="52">
+        <v>110061</v>
+      </c>
+      <c r="B20" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="H15" s="53">
-        <v>0</v>
-      </c>
-      <c r="I15" s="59"/>
-      <c r="J15" s="55" t="s">
+      <c r="C20" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="K15" s="46"/>
-      <c r="L15" s="46"/>
-      <c r="M15" s="46"/>
-      <c r="N15" s="50"/>
-      <c r="O15" s="46"/>
-      <c r="P15" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q15" s="46" t="s">
-        <v>23</v>
-      </c>
-      <c r="R15" s="46"/>
-      <c r="S15" s="30"/>
-      <c r="T15" s="30"/>
-      <c r="U15" s="46"/>
-    </row>
-    <row r="16" spans="1:21" ht="27">
-      <c r="A16" s="48"/>
-      <c r="B16" s="51"/>
-      <c r="C16" s="62"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="48" t="s">
-        <v>36</v>
-      </c>
-      <c r="G16" s="64" t="s">
+      <c r="D20" s="52">
+        <v>2150000</v>
+      </c>
+      <c r="E20" s="52" t="s">
+        <v>28</v>
+      </c>
+      <c r="F20" s="55" t="s">
         <v>54</v>
       </c>
-      <c r="H16" s="53">
-        <v>0</v>
-      </c>
-      <c r="I16" s="59">
-        <v>650</v>
-      </c>
-      <c r="J16" s="46"/>
-      <c r="K16" s="46"/>
-      <c r="L16" s="46"/>
-      <c r="M16" s="46"/>
-      <c r="N16" s="50"/>
-      <c r="O16" s="46"/>
-      <c r="P16" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q16" s="46" t="s">
-        <v>23</v>
-      </c>
-      <c r="R16" s="46"/>
-      <c r="S16" s="30"/>
-      <c r="T16" s="30"/>
-      <c r="U16" s="46"/>
-    </row>
-    <row r="17" spans="1:21" ht="27">
-      <c r="A17" s="48"/>
-      <c r="B17" s="51"/>
-      <c r="C17" s="62"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="51"/>
-      <c r="F17" s="48" t="s">
-        <v>43</v>
-      </c>
-      <c r="G17" s="64" t="s">
+      <c r="G20" s="52"/>
+      <c r="H20" s="52">
+        <v>2.23</v>
+      </c>
+      <c r="I20" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="H17" s="53">
-        <v>0</v>
-      </c>
-      <c r="I17" s="59">
-        <v>20</v>
-      </c>
-      <c r="J17" s="46"/>
-      <c r="K17" s="46"/>
-      <c r="L17" s="46"/>
-      <c r="M17" s="46"/>
-      <c r="N17" s="50"/>
-      <c r="O17" s="46"/>
-      <c r="P17" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q17" s="46" t="s">
-        <v>23</v>
-      </c>
-      <c r="R17" s="46"/>
-      <c r="S17" s="30"/>
-      <c r="T17" s="30"/>
-      <c r="U17" s="46"/>
-    </row>
-    <row r="18" spans="1:21" ht="27">
-      <c r="A18" s="48"/>
-      <c r="B18" s="51"/>
-      <c r="C18" s="62"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="48" t="s">
-        <v>43</v>
-      </c>
-      <c r="G18" s="64" t="s">
-        <v>45</v>
-      </c>
-      <c r="H18" s="53">
-        <v>0</v>
-      </c>
-      <c r="I18" s="59">
-        <v>20</v>
-      </c>
-      <c r="J18" s="46"/>
-      <c r="K18" s="46"/>
-      <c r="L18" s="46"/>
-      <c r="M18" s="46"/>
-      <c r="N18" s="50"/>
-      <c r="O18" s="46"/>
-      <c r="P18" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q18" s="46" t="s">
-        <v>23</v>
-      </c>
-      <c r="R18" s="46"/>
-      <c r="S18" s="30"/>
-      <c r="T18" s="30"/>
-      <c r="U18" s="46"/>
-    </row>
-    <row r="19" spans="1:21" ht="27">
-      <c r="A19" s="48"/>
-      <c r="B19" s="51"/>
-      <c r="C19" s="62"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="51"/>
-      <c r="F19" s="48" t="s">
-        <v>46</v>
-      </c>
-      <c r="G19" s="64" t="s">
-        <v>47</v>
-      </c>
-      <c r="H19" s="53">
-        <v>0</v>
-      </c>
-      <c r="I19" s="66">
-        <v>1000</v>
-      </c>
-      <c r="J19" s="46"/>
-      <c r="K19" s="46"/>
-      <c r="L19" s="46"/>
-      <c r="M19" s="46"/>
-      <c r="N19" s="50"/>
-      <c r="O19" s="46"/>
-      <c r="P19" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q19" s="46" t="s">
-        <v>23</v>
-      </c>
-      <c r="R19" s="46"/>
-      <c r="S19" s="30"/>
-      <c r="T19" s="30"/>
-      <c r="U19" s="46"/>
-    </row>
-    <row r="20" spans="1:21" ht="45.75">
-      <c r="A20" s="65">
-        <v>110061</v>
-      </c>
-      <c r="B20" s="65" t="s">
-        <v>56</v>
-      </c>
-      <c r="C20" s="65"/>
-      <c r="D20" s="67" t="s">
-        <v>57</v>
-      </c>
-      <c r="E20" s="65">
-        <v>2150000</v>
-      </c>
-      <c r="F20" s="65"/>
-      <c r="G20" s="68"/>
-      <c r="H20" s="65"/>
-      <c r="I20" s="65"/>
-      <c r="J20" s="65"/>
-      <c r="K20" s="46"/>
-      <c r="L20" s="46"/>
-      <c r="M20" s="46"/>
-      <c r="N20" s="50"/>
-      <c r="O20" s="46"/>
-      <c r="P20" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q20" s="46" t="s">
-        <v>23</v>
-      </c>
-      <c r="R20" s="46"/>
-      <c r="S20" s="30"/>
-      <c r="T20" s="30"/>
-      <c r="U20" s="46"/>
-    </row>
-    <row r="21" spans="1:21" ht="30.75">
-      <c r="A21" s="65">
-        <v>109164</v>
-      </c>
-      <c r="B21" s="69" t="s">
-        <v>58</v>
-      </c>
-      <c r="C21" s="69"/>
-      <c r="D21" s="69"/>
-      <c r="E21" s="69"/>
-      <c r="F21" s="65" t="s">
-        <v>32</v>
-      </c>
-      <c r="G21" s="68" t="s">
-        <v>59</v>
-      </c>
-      <c r="H21" s="65">
-        <v>5.56</v>
-      </c>
-      <c r="I21" s="65">
-        <v>3.33</v>
-      </c>
-      <c r="J21" s="70" t="s">
-        <v>60</v>
-      </c>
-      <c r="K21" s="46"/>
-      <c r="L21" s="46"/>
-      <c r="M21" s="46"/>
-      <c r="N21" s="50"/>
-      <c r="O21" s="46"/>
-      <c r="P21" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q21" s="46" t="s">
-        <v>23</v>
-      </c>
-      <c r="R21" s="46"/>
-      <c r="S21" s="30"/>
-      <c r="T21" s="30"/>
-      <c r="U21" s="46"/>
-    </row>
-    <row r="22" spans="1:21">
-      <c r="G22" s="8"/>
+      <c r="J20" s="36"/>
+      <c r="K20" s="36"/>
+      <c r="L20" s="36"/>
+      <c r="M20" s="36"/>
+      <c r="N20" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O20" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="P20" s="36"/>
+      <c r="Q20" s="30"/>
+      <c r="R20" s="30"/>
+      <c r="S20" s="36"/>
+    </row>
+    <row r="21" spans="1:19">
+      <c r="F21" s="8"/>
+      <c r="N21" s="29"/>
+      <c r="O21" s="29"/>
+      <c r="P21" s="29"/>
+      <c r="Q21" s="29"/>
+      <c r="R21" s="29"/>
+    </row>
+    <row r="22" spans="1:19">
+      <c r="F22" s="8"/>
+      <c r="N22" s="29"/>
+      <c r="O22" s="29"/>
       <c r="P22" s="29"/>
       <c r="Q22" s="29"/>
       <c r="R22" s="29"/>
-      <c r="S22" s="29"/>
-      <c r="T22" s="29"/>
-    </row>
-    <row r="23" spans="1:21">
-      <c r="G23" s="8"/>
-      <c r="P23" s="29"/>
-      <c r="Q23" s="29"/>
-      <c r="R23" s="29"/>
-      <c r="S23" s="29"/>
-      <c r="T23" s="29"/>
-    </row>
-    <row r="24" spans="1:21">
-      <c r="G24" s="8"/>
+    </row>
+    <row r="23" spans="1:19">
+      <c r="F23" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="C12:C19"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="C3:C11"/>
-  </mergeCells>
   <dataValidations count="6">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4 F13" xr:uid="{C35AD5E7-9C05-4A11-9F71-36719D32C290}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T2:T23" xr:uid="{1E190A99-9BFF-4CE9-AC67-306E550850B7}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4 E13" xr:uid="{C35AD5E7-9C05-4A11-9F71-36719D32C290}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:R22" xr:uid="{1E190A99-9BFF-4CE9-AC67-306E550850B7}">
       <formula1>"Electricity Access, Energy Efficiency, Renewable EnergyEnergy Infrastructure,   Transport, Digital &amp; Data, Clean Cooking, Decarbonization, Hydrogen, Off-Grid, On-Grid"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:S23" xr:uid="{2001F045-7211-4118-BD15-E46516BB0DAB}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q22" xr:uid="{2001F045-7211-4118-BD15-E46516BB0DAB}">
       <formula1>"NDC Support, National Strategy, Legal Framework,Incentives and Support, Government Capacity-Building, Carbon Pricing and Monitoring, Financing Model, Business Model"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:R23" xr:uid="{96AE7F23-217A-4AD9-B279-78255CC36D9A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P22" xr:uid="{96AE7F23-217A-4AD9-B279-78255CC36D9A}">
       <formula1>"AMP, PUDC, Solar4Health, Action Opportunities, Italy UNDP Energy Partnership"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q23" xr:uid="{7679577C-5057-4CAE-A580-533A5173DCDC}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O22" xr:uid="{7679577C-5057-4CAE-A580-533A5173DCDC}">
       <formula1>"Electricity Access, Energy Efficiency, Clean Cooking, Renewable Energy"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P23" xr:uid="{8BF837C9-DADF-4F73-B2BD-0382CD04DE67}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N22" xr:uid="{8BF837C9-DADF-4F73-B2BD-0382CD04DE67}">
       <formula1>"Accelerating just energy transition, Close the gap on energy access, Scale up energy finance"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{E526A5E1-C5A6-4AA2-ABA5-1BC765442B72}"/>
-    <hyperlink ref="D3" r:id="rId2" xr:uid="{A8C7CD7F-F779-4D37-8E5B-FC1B6B146550}"/>
-    <hyperlink ref="D20" r:id="rId3" xr:uid="{1057C5CB-3ACE-49CD-81D9-B6566CBF4DA9}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{E526A5E1-C5A6-4AA2-ABA5-1BC765442B72}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{A8C7CD7F-F779-4D37-8E5B-FC1B6B146550}"/>
+    <hyperlink ref="C20" r:id="rId3" xr:uid="{1057C5CB-3ACE-49CD-81D9-B6566CBF4DA9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -1993,7 +1855,7 @@
           <x14:formula1>
             <xm:f>'Beneficiary Categories'!$B$2:$B$16</xm:f>
           </x14:formula1>
-          <xm:sqref>F5:F12 F14 F16:F19 F2:F3</xm:sqref>
+          <xm:sqref>E2:E3 E14 E16:E19 E5:E6 E9:E12</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2005,7 +1867,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{097F89F9-6688-439D-801A-460CC8F3CB71}">
   <dimension ref="A1:T25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B14" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -2030,55 +1892,55 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="29" t="s">
+      <c r="L1" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="30" t="s">
+      <c r="M1" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="30" t="s">
-        <v>12</v>
-      </c>
       <c r="N1" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="P1" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="29" t="s">
+      <c r="Q1" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="29" t="s">
+      <c r="S1" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="29" t="s">
+      <c r="T1" s="29" t="s">
         <v>17</v>
-      </c>
-      <c r="S1" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="29" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:20">
@@ -2086,10 +1948,10 @@
         <v>144953</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E2" s="8">
         <v>95000</v>
@@ -2101,10 +1963,10 @@
       <c r="J2" s="3"/>
       <c r="N2" s="33"/>
       <c r="P2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Q2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -2112,21 +1974,21 @@
         <v>144270</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F3" s="8"/>
       <c r="N3" s="33"/>
       <c r="P3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="Q3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="S3" s="29"/>
       <c r="T3" s="29"/>
@@ -2134,30 +1996,30 @@
     <row r="4" spans="1:20" ht="39.75" customHeight="1">
       <c r="A4" s="8"/>
       <c r="B4" s="34"/>
-      <c r="C4" s="36" t="s">
-        <v>25</v>
+      <c r="C4" s="58" t="s">
+        <v>60</v>
       </c>
       <c r="D4" s="34"/>
       <c r="E4" s="34"/>
       <c r="F4" s="8" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="H4" s="11">
         <v>0</v>
       </c>
       <c r="I4" s="12"/>
       <c r="J4" s="31" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="N4" s="33"/>
       <c r="P4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="Q4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="S4" s="29"/>
       <c r="T4" s="29"/>
@@ -2165,14 +2027,14 @@
     <row r="5" spans="1:20" ht="15" customHeight="1">
       <c r="A5" s="8"/>
       <c r="B5" s="34"/>
-      <c r="C5" s="36"/>
+      <c r="C5" s="58"/>
       <c r="D5" s="34"/>
       <c r="E5" s="34"/>
       <c r="F5" s="8" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H5" s="11">
         <v>0</v>
@@ -2182,10 +2044,10 @@
       </c>
       <c r="N5" s="33"/>
       <c r="P5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Q5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="S5" s="29"/>
       <c r="T5" s="29"/>
@@ -2193,14 +2055,14 @@
     <row r="6" spans="1:20" ht="15" customHeight="1">
       <c r="A6" s="8"/>
       <c r="B6" s="34"/>
-      <c r="C6" s="36"/>
+      <c r="C6" s="58"/>
       <c r="D6" s="34"/>
       <c r="E6" s="34"/>
       <c r="F6" s="8" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H6" s="11">
         <v>0</v>
@@ -2210,10 +2072,10 @@
       </c>
       <c r="N6" s="33"/>
       <c r="P6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Q6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="S6" s="29"/>
       <c r="T6" s="29"/>
@@ -2221,14 +2083,14 @@
     <row r="7" spans="1:20" ht="40.5" customHeight="1">
       <c r="A7" s="8"/>
       <c r="B7" s="34"/>
-      <c r="C7" s="36"/>
+      <c r="C7" s="58"/>
       <c r="D7" s="34"/>
       <c r="E7" s="34"/>
       <c r="F7" s="8" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H7" s="11">
         <v>0</v>
@@ -2238,10 +2100,10 @@
       </c>
       <c r="N7" s="33"/>
       <c r="P7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Q7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="S7" s="29"/>
       <c r="T7" s="29"/>
@@ -2249,28 +2111,28 @@
     <row r="8" spans="1:20" ht="24.75" customHeight="1">
       <c r="A8" s="8"/>
       <c r="B8" s="34"/>
-      <c r="C8" s="36"/>
+      <c r="C8" s="58"/>
       <c r="D8" s="34"/>
       <c r="E8" s="34"/>
       <c r="F8" s="8" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H8" s="11">
         <v>0</v>
       </c>
       <c r="I8" s="15"/>
       <c r="J8" s="31" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="N8" s="33"/>
       <c r="P8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Q8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="S8" s="29"/>
       <c r="T8" s="29"/>
@@ -2278,28 +2140,28 @@
     <row r="9" spans="1:20" ht="27.75" customHeight="1">
       <c r="A9" s="8"/>
       <c r="B9" s="34"/>
-      <c r="C9" s="36"/>
+      <c r="C9" s="58"/>
       <c r="D9" s="34"/>
       <c r="E9" s="34"/>
       <c r="F9" s="8" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H9" s="11">
         <v>0</v>
       </c>
       <c r="I9" s="16"/>
       <c r="J9" s="31" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="N9" s="33"/>
       <c r="P9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Q9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="S9" s="29"/>
       <c r="T9" s="29"/>
@@ -2307,14 +2169,14 @@
     <row r="10" spans="1:20" ht="55.5" customHeight="1">
       <c r="A10" s="8"/>
       <c r="B10" s="34"/>
-      <c r="C10" s="36"/>
+      <c r="C10" s="58"/>
       <c r="D10" s="34"/>
       <c r="E10" s="34"/>
       <c r="F10" s="8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H10" s="11">
         <v>0</v>
@@ -2324,10 +2186,10 @@
       </c>
       <c r="N10" s="33"/>
       <c r="P10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Q10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="S10" s="29"/>
       <c r="T10" s="29"/>
@@ -2335,14 +2197,14 @@
     <row r="11" spans="1:20" ht="41.25" customHeight="1">
       <c r="A11" s="8"/>
       <c r="B11" s="34"/>
-      <c r="C11" s="36"/>
+      <c r="C11" s="58"/>
       <c r="D11" s="34"/>
       <c r="E11" s="34"/>
       <c r="F11" s="8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H11" s="11">
         <v>0</v>
@@ -2352,10 +2214,10 @@
       </c>
       <c r="N11" s="33"/>
       <c r="P11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Q11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="S11" s="29"/>
       <c r="T11" s="29"/>
@@ -2363,14 +2225,14 @@
     <row r="12" spans="1:20" ht="39.75" customHeight="1">
       <c r="A12" s="8"/>
       <c r="B12" s="34"/>
-      <c r="C12" s="36"/>
+      <c r="C12" s="58"/>
       <c r="D12" s="34"/>
       <c r="E12" s="34"/>
       <c r="F12" s="8" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H12" s="11">
         <v>0</v>
@@ -2381,10 +2243,10 @@
       <c r="L12" s="7"/>
       <c r="N12" s="33"/>
       <c r="P12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Q12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="S12" s="29"/>
       <c r="T12" s="29"/>
@@ -2392,28 +2254,28 @@
     <row r="13" spans="1:20" ht="27.75" customHeight="1">
       <c r="A13" s="8"/>
       <c r="B13" s="34"/>
-      <c r="C13" s="36" t="s">
-        <v>48</v>
+      <c r="C13" s="58" t="s">
+        <v>62</v>
       </c>
       <c r="D13" s="34"/>
       <c r="E13" s="34"/>
       <c r="F13" s="8"/>
       <c r="G13" s="9" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="H13" s="11">
         <v>0</v>
       </c>
       <c r="I13" s="15"/>
       <c r="J13" s="31" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="N13" s="33"/>
       <c r="P13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Q13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="S13" s="29"/>
       <c r="T13" s="29"/>
@@ -2421,14 +2283,14 @@
     <row r="14" spans="1:20" ht="24.75" customHeight="1">
       <c r="A14" s="8"/>
       <c r="B14" s="34"/>
-      <c r="C14" s="36"/>
+      <c r="C14" s="58"/>
       <c r="D14" s="34"/>
       <c r="E14" s="34"/>
       <c r="F14" s="8" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="H14" s="11">
         <v>0</v>
@@ -2438,10 +2300,10 @@
       </c>
       <c r="N14" s="33"/>
       <c r="P14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Q14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="S14" s="29"/>
       <c r="T14" s="29"/>
@@ -2449,14 +2311,14 @@
     <row r="15" spans="1:20" ht="20.25" customHeight="1">
       <c r="A15" s="8"/>
       <c r="B15" s="34"/>
-      <c r="C15" s="36"/>
+      <c r="C15" s="58"/>
       <c r="D15" s="34"/>
       <c r="E15" s="34"/>
       <c r="F15" s="8" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H15" s="11">
         <v>0</v>
@@ -2466,10 +2328,10 @@
       </c>
       <c r="N15" s="33"/>
       <c r="P15" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="Q15" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="S15" s="29"/>
       <c r="T15" s="29"/>
@@ -2477,26 +2339,26 @@
     <row r="16" spans="1:20" ht="20.25" customHeight="1">
       <c r="A16" s="8"/>
       <c r="B16" s="34"/>
-      <c r="C16" s="36"/>
+      <c r="C16" s="58"/>
       <c r="D16" s="34"/>
       <c r="E16" s="34"/>
       <c r="F16" s="18"/>
       <c r="G16" s="6" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="H16" s="11">
         <v>0</v>
       </c>
       <c r="I16" s="15"/>
       <c r="J16" s="31" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="N16" s="33"/>
       <c r="P16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Q16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="S16" s="29"/>
       <c r="T16" s="29"/>
@@ -2504,14 +2366,14 @@
     <row r="17" spans="1:20" ht="27">
       <c r="A17" s="8"/>
       <c r="B17" s="34"/>
-      <c r="C17" s="36"/>
+      <c r="C17" s="58"/>
       <c r="D17" s="34"/>
       <c r="E17" s="34"/>
       <c r="F17" s="8" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="H17" s="11">
         <v>0</v>
@@ -2521,10 +2383,10 @@
       </c>
       <c r="N17" s="33"/>
       <c r="P17" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Q17" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="S17" s="29"/>
       <c r="T17" s="29"/>
@@ -2532,14 +2394,14 @@
     <row r="18" spans="1:20" ht="27">
       <c r="A18" s="8"/>
       <c r="B18" s="34"/>
-      <c r="C18" s="36"/>
+      <c r="C18" s="58"/>
       <c r="D18" s="34"/>
       <c r="E18" s="34"/>
       <c r="F18" s="8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="H18" s="11">
         <v>0</v>
@@ -2549,10 +2411,10 @@
       </c>
       <c r="N18" s="33"/>
       <c r="P18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Q18" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="S18" s="29"/>
       <c r="T18" s="29"/>
@@ -2560,14 +2422,14 @@
     <row r="19" spans="1:20" ht="27">
       <c r="A19" s="8"/>
       <c r="B19" s="34"/>
-      <c r="C19" s="36"/>
+      <c r="C19" s="58"/>
       <c r="D19" s="34"/>
       <c r="E19" s="34"/>
       <c r="F19" s="8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H19" s="11">
         <v>0</v>
@@ -2577,10 +2439,10 @@
       </c>
       <c r="N19" s="33"/>
       <c r="P19" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Q19" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="S19" s="29"/>
       <c r="T19" s="29"/>
@@ -2588,14 +2450,14 @@
     <row r="20" spans="1:20" ht="27">
       <c r="A20" s="8"/>
       <c r="B20" s="34"/>
-      <c r="C20" s="37"/>
+      <c r="C20" s="59"/>
       <c r="D20" s="34"/>
       <c r="E20" s="34"/>
       <c r="F20" s="8" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H20" s="11">
         <v>0</v>
@@ -2606,10 +2468,10 @@
       <c r="J20" s="17"/>
       <c r="N20" s="33"/>
       <c r="P20" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Q20" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="S20" s="29"/>
       <c r="T20" s="29"/>
@@ -2619,14 +2481,14 @@
         <v>110061</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C21" s="20"/>
       <c r="D21" s="21" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E21" s="20" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F21" s="20"/>
       <c r="G21" s="22"/>
@@ -2635,10 +2497,10 @@
       <c r="J21" s="18"/>
       <c r="N21" s="33"/>
       <c r="P21" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Q21" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="S21" s="29"/>
       <c r="T21" s="29"/>
@@ -2647,20 +2509,20 @@
       <c r="A22" s="24">
         <v>109164</v>
       </c>
-      <c r="B22" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="C22" s="35"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="35"/>
+      <c r="B22" s="57" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" s="57"/>
+      <c r="D22" s="57"/>
+      <c r="E22" s="57"/>
       <c r="F22" s="25" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G22" s="26" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="H22" s="25" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I22" s="27">
         <v>3.33</v>
@@ -2668,10 +2530,10 @@
       <c r="J22" s="18"/>
       <c r="N22" s="33"/>
       <c r="P22" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Q22" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="S22" s="29"/>
       <c r="T22" s="29"/>
@@ -2768,28 +2630,28 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="29" t="s">
         <v>9</v>
-      </c>
-      <c r="J1" s="29" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -2797,10 +2659,10 @@
         <v>144953</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D2" s="8">
         <v>95000</v>
@@ -2816,86 +2678,86 @@
         <v>144270</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="39.75" customHeight="1">
+      <c r="A4" s="61">
+        <v>144270</v>
+      </c>
+      <c r="B4" s="60" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="8" t="s">
+      <c r="G4" s="11">
+        <v>0</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="30.75">
+      <c r="A5" s="61"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="E3" s="8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="39.75" customHeight="1">
-      <c r="A4" s="39">
-        <v>144270</v>
-      </c>
-      <c r="B4" s="38" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" s="11">
-        <v>0</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="30.75">
-      <c r="A5" s="39"/>
-      <c r="B5" s="38"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="8" t="s">
-        <v>27</v>
-      </c>
       <c r="F5" s="9" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G5" s="11">
         <v>0</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="39"/>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
+      <c r="A6" s="61"/>
+      <c r="B6" s="60"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="60"/>
       <c r="E6" s="8" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G6" s="11">
         <v>0</v>
       </c>
       <c r="H6" s="14" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="40.5" customHeight="1">
-      <c r="A7" s="39"/>
-      <c r="B7" s="38"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
+      <c r="A7" s="61"/>
+      <c r="B7" s="60"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="60"/>
       <c r="E7" s="8" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G7" s="11">
         <v>0</v>
@@ -2905,182 +2767,182 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="24.75" customHeight="1">
-      <c r="A8" s="39"/>
-      <c r="B8" s="38"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
+      <c r="A8" s="61"/>
+      <c r="B8" s="60"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="60"/>
       <c r="E8" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="11">
+        <v>0</v>
+      </c>
+      <c r="H8" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="F8" s="9" t="s">
+    </row>
+    <row r="9" spans="1:11" ht="27.75" customHeight="1">
+      <c r="A9" s="61"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="G8" s="11">
-        <v>0</v>
-      </c>
-      <c r="H8" s="15" t="s">
+      <c r="G9" s="11">
+        <v>0</v>
+      </c>
+      <c r="H9" s="16" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="27.75" customHeight="1">
-      <c r="A9" s="39"/>
-      <c r="B9" s="38"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="F9" s="9" t="s">
+    <row r="10" spans="1:11" ht="55.5" customHeight="1">
+      <c r="A10" s="61"/>
+      <c r="B10" s="60"/>
+      <c r="C10" s="60"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="G9" s="11">
-        <v>0</v>
-      </c>
-      <c r="H9" s="16" t="s">
+      <c r="G10" s="11">
+        <v>0</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="41.25" customHeight="1">
+      <c r="A11" s="61"/>
+      <c r="B11" s="60"/>
+      <c r="C11" s="60"/>
+      <c r="D11" s="60"/>
+      <c r="E11" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="9" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" ht="55.5" customHeight="1">
-      <c r="A10" s="39"/>
-      <c r="B10" s="38"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="8" t="s">
+      <c r="G11" s="11">
+        <v>0</v>
+      </c>
+      <c r="H11" s="15" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="39.75" customHeight="1">
+      <c r="A12" s="61"/>
+      <c r="B12" s="60"/>
+      <c r="C12" s="60"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="F10" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="G10" s="11">
-        <v>0</v>
-      </c>
-      <c r="H10" s="15" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="41.25" customHeight="1">
-      <c r="A11" s="39"/>
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="G11" s="11">
-        <v>0</v>
-      </c>
-      <c r="H11" s="15" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="39.75" customHeight="1">
-      <c r="A12" s="39"/>
-      <c r="B12" s="38"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="8" t="s">
+      <c r="F12" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="G12" s="11">
+        <v>0</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="K12" s="7"/>
+    </row>
+    <row r="13" spans="1:11" ht="27.75" customHeight="1">
+      <c r="A13" s="61">
+        <v>144270</v>
+      </c>
+      <c r="B13" s="60" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" s="60"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="G13" s="11">
+        <v>0</v>
+      </c>
+      <c r="H13" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="F12" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="G12" s="11">
-        <v>0</v>
-      </c>
-      <c r="H12" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="K12" s="7"/>
-    </row>
-    <row r="13" spans="1:11" ht="27.75" customHeight="1">
-      <c r="A13" s="39">
-        <v>144270</v>
-      </c>
-      <c r="B13" s="38" t="s">
-        <v>71</v>
-      </c>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="F13" s="9" t="s">
+    </row>
+    <row r="14" spans="1:11" ht="24.75" customHeight="1">
+      <c r="A14" s="61"/>
+      <c r="B14" s="60"/>
+      <c r="C14" s="60"/>
+      <c r="D14" s="60"/>
+      <c r="E14" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="G14" s="11">
+        <v>0</v>
+      </c>
+      <c r="H14" s="14" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="20.25" customHeight="1">
+      <c r="A15" s="61"/>
+      <c r="B15" s="60"/>
+      <c r="C15" s="60"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G15" s="11">
+        <v>0</v>
+      </c>
+      <c r="H15" s="15" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="20.25" customHeight="1">
+      <c r="A16" s="61"/>
+      <c r="B16" s="60"/>
+      <c r="C16" s="60"/>
+      <c r="D16" s="60"/>
+      <c r="E16" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G16" s="11">
+        <v>0</v>
+      </c>
+      <c r="H16" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="G13" s="11">
-        <v>0</v>
-      </c>
-      <c r="H13" s="15" t="s">
+    </row>
+    <row r="17" spans="1:9" ht="27">
+      <c r="A17" s="61"/>
+      <c r="B17" s="60"/>
+      <c r="C17" s="60"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" s="6" t="s">
         <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="24.75" customHeight="1">
-      <c r="A14" s="39"/>
-      <c r="B14" s="38"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="G14" s="11">
-        <v>0</v>
-      </c>
-      <c r="H14" s="14" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="20.25" customHeight="1">
-      <c r="A15" s="39"/>
-      <c r="B15" s="38"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="G15" s="11">
-        <v>0</v>
-      </c>
-      <c r="H15" s="15" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="20.25" customHeight="1">
-      <c r="A16" s="39"/>
-      <c r="B16" s="38"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="G16" s="11">
-        <v>0</v>
-      </c>
-      <c r="H16" s="15" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="27">
-      <c r="A17" s="39"/>
-      <c r="B17" s="38"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>54</v>
       </c>
       <c r="G17" s="11">
         <v>0</v>
@@ -3090,51 +2952,51 @@
       </c>
     </row>
     <row r="18" spans="1:9" ht="27">
-      <c r="A18" s="39"/>
-      <c r="B18" s="38"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38"/>
+      <c r="A18" s="61"/>
+      <c r="B18" s="60"/>
+      <c r="C18" s="60"/>
+      <c r="D18" s="60"/>
       <c r="E18" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G18" s="11">
+        <v>0</v>
+      </c>
+      <c r="H18" s="15" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="27">
+      <c r="A19" s="61"/>
+      <c r="B19" s="60"/>
+      <c r="C19" s="60"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G19" s="11">
+        <v>0</v>
+      </c>
+      <c r="H19" s="15" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="27">
+      <c r="A20" s="61"/>
+      <c r="B20" s="60"/>
+      <c r="C20" s="60"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="F18" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="G18" s="11">
-        <v>0</v>
-      </c>
-      <c r="H18" s="15" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="27">
-      <c r="A19" s="39"/>
-      <c r="B19" s="38"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="G19" s="11">
-        <v>0</v>
-      </c>
-      <c r="H19" s="15" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="27">
-      <c r="A20" s="39"/>
-      <c r="B20" s="38"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="8" t="s">
-        <v>46</v>
-      </c>
       <c r="F20" s="6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G20" s="11">
         <v>0</v>
@@ -3149,13 +3011,13 @@
         <v>110061</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D21" s="20" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E21" s="20"/>
       <c r="F21" s="22"/>
@@ -3167,22 +3029,22 @@
       <c r="A22" s="24">
         <v>109164</v>
       </c>
-      <c r="B22" s="40" t="s">
-        <v>58</v>
-      </c>
-      <c r="C22" s="40"/>
-      <c r="D22" s="40"/>
+      <c r="B22" s="62" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" s="62"/>
+      <c r="D22" s="62"/>
       <c r="E22" s="25" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F22" s="26" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="G22" s="25" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="H22" s="27" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I22" s="18"/>
     </row>
@@ -3239,160 +3101,160 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="41" t="s">
-        <v>78</v>
+      <c r="A2" s="63" t="s">
+        <v>80</v>
       </c>
       <c r="B2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="41"/>
+      <c r="A3" s="63"/>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="41"/>
+      <c r="A4" s="63"/>
       <c r="B4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="42" t="s">
-        <v>84</v>
+      <c r="A5" s="64" t="s">
+        <v>86</v>
       </c>
       <c r="B5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C5" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="42"/>
+      <c r="A6" s="64"/>
       <c r="B6" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C6" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="42"/>
+      <c r="A7" s="64"/>
       <c r="B7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="42"/>
+      <c r="A8" s="64"/>
       <c r="B8" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C8" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="42"/>
+      <c r="A9" s="64"/>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="C9" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="43" t="s">
-        <v>94</v>
+      <c r="A10" s="65" t="s">
+        <v>96</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C10" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="43"/>
+      <c r="A11" s="65"/>
       <c r="B11" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C11" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="44" t="s">
-        <v>98</v>
+      <c r="A12" s="66" t="s">
+        <v>100</v>
       </c>
       <c r="B12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="66"/>
+      <c r="B13" t="s">
+        <v>102</v>
+      </c>
+      <c r="C13" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="66"/>
+      <c r="B14" t="s">
         <v>43</v>
       </c>
-      <c r="C12" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="44"/>
-      <c r="B13" t="s">
-        <v>100</v>
-      </c>
-      <c r="C13" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="44"/>
-      <c r="B14" t="s">
-        <v>46</v>
-      </c>
       <c r="C14" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="4" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B15" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C15" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="5" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B16" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C16" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -3407,6 +3269,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="720239d0-7d3a-4257-bb40-a2a3b1409bb2">
@@ -3417,7 +3288,7 @@
 </p:properties>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010081A889D055969F449BCDADF9B8A9C0F0" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0d2b1cfbe0bead55dc04bff20486709a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="720239d0-7d3a-4257-bb40-a2a3b1409bb2" xmlns:ns3="fb9e4d32-074f-4c04-81ef-e811753dfd59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a3ed273af6605fa6a207dd3965c2d078" ns2:_="" ns3:_="">
     <xsd:import namespace="720239d0-7d3a-4257-bb40-a2a3b1409bb2"/>
@@ -3666,23 +3537,14 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD1F45FA-ADB1-42D5-8002-7349D9DEF3AA}"/>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0849318C-6090-4401-8D9F-FDDD7A2B862B}"/>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{027502D3-96EC-47DD-8A36-DB96D446584B}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD1F45FA-ADB1-42D5-8002-7349D9DEF3AA}"/>
 </file>
--- a/01_Input/00_CO Validation/North Macedonia - Energy Projects.xlsx
+++ b/01_Input/00_CO Validation/North Macedonia - Energy Projects.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="620" documentId="11_0354F80925A16C94F44275D1D09B3032E8EAA263" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{72E80B7E-98DF-4200-99F3-9F33A262DC55}"/>
+  <xr:revisionPtr revIDLastSave="633" documentId="11_0354F80925A16C94F44275D1D09B3032E8EAA263" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C4569D06-E7BC-4CDC-8665-F00E65A0E19D}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="125">
   <si>
     <t>Project ID</t>
   </si>
@@ -91,6 +91,9 @@
   </si>
   <si>
     <t>Technology</t>
+  </si>
+  <si>
+    <t>Market Intervention</t>
   </si>
   <si>
     <t>Policy or Regulatory Framework</t>
@@ -127,133 +130,133 @@
     <t>National</t>
   </si>
   <si>
+    <t>Green Finance Facility to Improve Air Quality and Combat Climate Change in North Macedonia</t>
+  </si>
+  <si>
+    <t>https://open.undp.org/projects/00144270</t>
+  </si>
+  <si>
+    <t>Energy Efficiency Services</t>
+  </si>
+  <si>
+    <t>Expected annual energy saved (MJ)</t>
+  </si>
+  <si>
+    <t>81,000 MWh tonnes</t>
+  </si>
+  <si>
+    <t>GHG Emissions Reduction</t>
+  </si>
+  <si>
+    <t>Estimated GHG emissions avoided (tCO2e/year)</t>
+  </si>
+  <si>
+    <t>Energy (MW added)</t>
+  </si>
+  <si>
+    <t>Renewable capacity added</t>
+  </si>
+  <si>
+    <t>Medium Enterprises</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number (sex disaggregated) of sub-loans (RE/EE) extended by PFIs </t>
+  </si>
+  <si>
+    <t>Total value of sub-loans extended</t>
+  </si>
+  <si>
+    <t>Business Model</t>
+  </si>
+  <si>
+    <t>Total value of performance- based payments allocated:</t>
+  </si>
+  <si>
+    <t>Capacity Building Training</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number (sex disaggregated) of loan officers trained to assess RE/EE project loan applications </t>
+  </si>
+  <si>
+    <t>Number of loan officers trained on gender-disaggregated data collection and analysis</t>
+  </si>
+  <si>
+    <t>Campaign Participant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number (sex-disaggregated) of individuals reached through marketing efforts  </t>
+  </si>
+  <si>
+    <t>Expected annual energy saved  (MJ)</t>
+  </si>
+  <si>
+    <t>5,200 MWh -&gt; convert to MJ 18720000</t>
+  </si>
+  <si>
+    <t>Estimated GHG emissions avoided tCO2e/year</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total value of loans extended: </t>
+  </si>
+  <si>
+    <t>USD 6.5 M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number (sex-disaggregated) of loans extended by banks </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number (sex-disaggregated) of loan officers trained to assess RE/EE project loan applications </t>
+  </si>
+  <si>
+    <t>Tackling Air Pollution in Skopje</t>
+  </si>
+  <si>
+    <t>https://open.undp.org/projects/00110061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calculation of emissions </t>
+  </si>
+  <si>
+    <t>5.56t in 2019</t>
+  </si>
+  <si>
+    <t>Output Title</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
     <t>Energy Efficiency</t>
   </si>
   <si>
-    <t>Green Finance Facility to Improve Air Quality and Combat Climate Change in North Macedonia</t>
-  </si>
-  <si>
-    <t>https://open.undp.org/projects/00144270</t>
-  </si>
-  <si>
-    <t>Energy Efficiency Services</t>
-  </si>
-  <si>
-    <t>Expected annual energy saved (MJ)</t>
-  </si>
-  <si>
-    <t>81,000 MWh tonnes</t>
+    <t>USD 44.4 M</t>
+  </si>
+  <si>
+    <t>Scale up energy finance</t>
+  </si>
+  <si>
+    <t>Output 1: SMEs have greater access to finance for accelerating a transition to renewable energy and energy efficiency solutions. No. in Quantum: 00132098</t>
+  </si>
+  <si>
+    <t>Other Energy Services</t>
+  </si>
+  <si>
+    <t>Expected annual energy saved</t>
   </si>
   <si>
     <t>Close the gap on energy access</t>
   </si>
   <si>
-    <t>GHG Emissions Reduction</t>
-  </si>
-  <si>
-    <t>Estimated GHG emissions avoided (tCO2e/year)</t>
-  </si>
-  <si>
-    <t>Energy (MW added)</t>
-  </si>
-  <si>
-    <t>Renewable capacity added</t>
-  </si>
-  <si>
-    <t>Medium Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number (sex disaggregated) of sub-loans (RE/EE) extended by PFIs </t>
-  </si>
-  <si>
-    <t>Market Intervention</t>
-  </si>
-  <si>
-    <t>Total value of sub-loans extended</t>
-  </si>
-  <si>
-    <t>f</t>
-  </si>
-  <si>
-    <t>Total value of performance- based payments allocated:</t>
+    <t>$30.39 M</t>
+  </si>
+  <si>
+    <t>USD 3.039 M</t>
   </si>
   <si>
     <t>Capacity Training</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number (sex disaggregated) of loan officers trained to assess RE/EE project loan applications </t>
-  </si>
-  <si>
-    <t>Number of loan officers trained on gender-disaggregated data collection and analysis</t>
-  </si>
-  <si>
-    <t>Campaign Participant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number (sex-disaggregated) of individuals reached through marketing efforts  </t>
-  </si>
-  <si>
-    <t>Expected annual energy saved  (MJ)</t>
-  </si>
-  <si>
-    <t>5,200 MWh -&gt; convert to MJ 18720000</t>
-  </si>
-  <si>
-    <t>Estimated GHG emissions avoided tCO2e/year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total value of loans extended: </t>
-  </si>
-  <si>
-    <t>USD 6.5 M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number (sex-disaggregated) of loans extended by banks </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number (sex-disaggregated) of loan officers trained to assess RE/EE project loan applications </t>
-  </si>
-  <si>
-    <t>Tackling Air Pollution in Skopje</t>
-  </si>
-  <si>
-    <t>https://open.undp.org/projects/00110061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calculation of emissions </t>
-  </si>
-  <si>
-    <t>5.56t in 2019</t>
-  </si>
-  <si>
-    <t>Output Title</t>
-  </si>
-  <si>
-    <t>Category</t>
-  </si>
-  <si>
-    <t>Comments</t>
-  </si>
-  <si>
-    <t>USD 44.4 M</t>
-  </si>
-  <si>
-    <t>Scale up energy finance</t>
-  </si>
-  <si>
-    <t>Output 1: SMEs have greater access to finance for accelerating a transition to renewable energy and energy efficiency solutions. No. in Quantum: 00132098</t>
-  </si>
-  <si>
-    <t>Other Energy Services</t>
-  </si>
-  <si>
-    <t>Expected annual energy saved</t>
-  </si>
-  <si>
-    <t>$30.39 M</t>
-  </si>
-  <si>
-    <t>USD 3.039 M</t>
   </si>
   <si>
     <t>"Output 2: Target groups/ households, especially women and female headed households have greater access to finance for accelerating a transition to RE and EE solutions. No. in Quantum: 00132099
@@ -385,9 +388,6 @@
   </si>
   <si>
     <t>Support for the development of small enterprises in the energy transition market</t>
-  </si>
-  <si>
-    <t>Capacity Building Training</t>
   </si>
   <si>
     <t>Number of people who benefits from training for enterprises on the energy business and energy finance. </t>
@@ -1181,10 +1181,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D1B1400-35FF-426D-9AE6-BEF15E5709CF}">
-  <dimension ref="A1:Z23"/>
+  <dimension ref="A1:V23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
-      <selection activeCell="U1" sqref="U1:U1048576"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1203,11 +1203,13 @@
     <col min="15" max="15" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="30.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:22">
       <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
@@ -1268,28 +1270,31 @@
       <c r="T1" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="59" t="s">
+      <c r="U1" s="58" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:26" ht="106.5">
+      <c r="V1" s="59" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" ht="106.5">
       <c r="A2" s="33">
         <v>144953</v>
       </c>
       <c r="B2" s="50" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" s="36" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" s="37">
         <v>95000</v>
       </c>
       <c r="E2" s="33" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F2" s="50" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G2" s="33"/>
       <c r="H2" s="33"/>
@@ -1297,37 +1302,30 @@
       <c r="J2" s="33"/>
       <c r="K2" s="33"/>
       <c r="L2" s="60" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M2" s="39"/>
       <c r="N2" s="61" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O2" s="39" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P2" s="39"/>
       <c r="Q2" s="39" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="R2" s="39" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="S2" s="37"/>
-      <c r="T2" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="U2" s="37"/>
-      <c r="W2" s="33"/>
-      <c r="X2" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y2" s="33" t="s">
+      <c r="T2" s="39"/>
+      <c r="U2" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="Z2" s="33"/>
-    </row>
-    <row r="3" spans="1:26" ht="64.5" customHeight="1">
+      <c r="V2" s="37"/>
+    </row>
+    <row r="3" spans="1:22" ht="64.5" customHeight="1">
       <c r="A3" s="33">
         <v>144270</v>
       </c>
@@ -1358,11 +1356,11 @@
       <c r="J3" s="33"/>
       <c r="K3" s="33"/>
       <c r="L3" s="60" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M3" s="39"/>
       <c r="N3" s="61" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O3" s="39"/>
       <c r="P3" s="39"/>
@@ -1370,26 +1368,19 @@
       <c r="R3" s="39"/>
       <c r="S3" s="37"/>
       <c r="T3" s="39"/>
-      <c r="U3" s="37"/>
-      <c r="W3" s="33"/>
-      <c r="X3" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y3" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z3" s="33"/>
-    </row>
-    <row r="4" spans="1:26" ht="15" customHeight="1">
+      <c r="U3" s="39"/>
+      <c r="V3" s="37"/>
+    </row>
+    <row r="4" spans="1:22" ht="15" customHeight="1">
       <c r="A4" s="37"/>
       <c r="B4" s="42"/>
       <c r="C4" s="42"/>
       <c r="D4" s="42"/>
       <c r="E4" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="38" t="s">
         <v>37</v>
-      </c>
-      <c r="F4" s="38" t="s">
-        <v>38</v>
       </c>
       <c r="G4" s="39">
         <v>0</v>
@@ -1401,11 +1392,11 @@
       <c r="J4" s="33"/>
       <c r="K4" s="33"/>
       <c r="L4" s="60" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M4" s="39"/>
       <c r="N4" s="61" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O4" s="39"/>
       <c r="P4" s="39"/>
@@ -1413,26 +1404,19 @@
       <c r="R4" s="39"/>
       <c r="S4" s="37"/>
       <c r="T4" s="39"/>
-      <c r="U4" s="37"/>
-      <c r="W4" s="33"/>
-      <c r="X4" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y4" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z4" s="33"/>
-    </row>
-    <row r="5" spans="1:26" ht="15" customHeight="1">
+      <c r="U4" s="39"/>
+      <c r="V4" s="37"/>
+    </row>
+    <row r="5" spans="1:22" ht="15" customHeight="1">
       <c r="A5" s="37"/>
       <c r="B5" s="42"/>
       <c r="C5" s="42"/>
       <c r="D5" s="42"/>
       <c r="E5" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="44" t="s">
         <v>39</v>
-      </c>
-      <c r="F5" s="44" t="s">
-        <v>40</v>
       </c>
       <c r="G5" s="39">
         <v>0</v>
@@ -1444,11 +1428,11 @@
       <c r="J5" s="33"/>
       <c r="K5" s="33"/>
       <c r="L5" s="60" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M5" s="39"/>
       <c r="N5" s="61" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O5" s="39"/>
       <c r="P5" s="39"/>
@@ -1456,26 +1440,19 @@
       <c r="R5" s="39"/>
       <c r="S5" s="37"/>
       <c r="T5" s="39"/>
-      <c r="U5" s="37"/>
-      <c r="W5" s="33"/>
-      <c r="X5" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y5" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z5" s="33"/>
-    </row>
-    <row r="6" spans="1:26" ht="40.5" customHeight="1">
+      <c r="U5" s="39"/>
+      <c r="V5" s="37"/>
+    </row>
+    <row r="6" spans="1:22" ht="40.5" customHeight="1">
       <c r="A6" s="37"/>
       <c r="B6" s="42"/>
       <c r="C6" s="42"/>
       <c r="D6" s="42"/>
       <c r="E6" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="44" t="s">
         <v>41</v>
-      </c>
-      <c r="F6" s="44" t="s">
-        <v>42</v>
       </c>
       <c r="G6" s="39">
         <v>0</v>
@@ -1487,11 +1464,11 @@
       <c r="J6" s="33"/>
       <c r="K6" s="33"/>
       <c r="L6" s="60" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M6" s="39"/>
       <c r="N6" s="61" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O6" s="39"/>
       <c r="P6" s="39"/>
@@ -1499,26 +1476,19 @@
       <c r="R6" s="39"/>
       <c r="S6" s="37"/>
       <c r="T6" s="39"/>
-      <c r="U6" s="37"/>
-      <c r="W6" s="33"/>
-      <c r="X6" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y6" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z6" s="33"/>
-    </row>
-    <row r="7" spans="1:26" ht="24.75" customHeight="1">
+      <c r="U6" s="39"/>
+      <c r="V6" s="37"/>
+    </row>
+    <row r="7" spans="1:22" ht="24.75" customHeight="1">
       <c r="A7" s="37"/>
       <c r="B7" s="42"/>
       <c r="C7" s="42"/>
       <c r="D7" s="42"/>
       <c r="E7" s="42" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="F7" s="38" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G7" s="39">
         <v>0</v>
@@ -1529,40 +1499,33 @@
       <c r="J7" s="33"/>
       <c r="K7" s="33"/>
       <c r="L7" s="60" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M7" s="39"/>
       <c r="N7" s="61" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O7" s="39"/>
       <c r="P7" s="39"/>
       <c r="Q7" s="39"/>
       <c r="R7" s="39"/>
       <c r="S7" s="37"/>
-      <c r="T7" s="39"/>
-      <c r="U7" s="37"/>
-      <c r="W7" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="X7" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y7" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z7" s="33"/>
-    </row>
-    <row r="8" spans="1:26" ht="27.75" customHeight="1">
+      <c r="T7" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="U7" s="39"/>
+      <c r="V7" s="37"/>
+    </row>
+    <row r="8" spans="1:22" ht="27.75" customHeight="1">
       <c r="A8" s="37"/>
       <c r="B8" s="42"/>
       <c r="C8" s="42"/>
       <c r="D8" s="42"/>
       <c r="E8" s="42" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="F8" s="38" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G8" s="39">
         <v>0</v>
@@ -1573,38 +1536,33 @@
       <c r="J8" s="33"/>
       <c r="K8" s="33"/>
       <c r="L8" s="60" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M8" s="39"/>
       <c r="N8" s="61" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O8" s="39"/>
       <c r="P8" s="39"/>
       <c r="Q8" s="39"/>
       <c r="R8" s="39"/>
       <c r="S8" s="37"/>
-      <c r="T8" s="39"/>
-      <c r="U8" s="37"/>
-      <c r="W8" s="33"/>
-      <c r="X8" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y8" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z8" s="33"/>
-    </row>
-    <row r="9" spans="1:26" ht="55.5" customHeight="1">
+      <c r="T8" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="U8" s="39"/>
+      <c r="V8" s="37"/>
+    </row>
+    <row r="9" spans="1:22" ht="55.5" customHeight="1">
       <c r="A9" s="37"/>
       <c r="B9" s="42"/>
       <c r="C9" s="42"/>
       <c r="D9" s="42"/>
       <c r="E9" s="37" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F9" s="38" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G9" s="39">
         <v>0</v>
@@ -1616,11 +1574,11 @@
       <c r="J9" s="33"/>
       <c r="K9" s="33"/>
       <c r="L9" s="60" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M9" s="39"/>
       <c r="N9" s="61" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O9" s="39"/>
       <c r="P9" s="39"/>
@@ -1628,26 +1586,19 @@
       <c r="R9" s="39"/>
       <c r="S9" s="37"/>
       <c r="T9" s="39"/>
-      <c r="U9" s="37"/>
-      <c r="W9" s="33"/>
-      <c r="X9" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y9" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z9" s="33"/>
-    </row>
-    <row r="10" spans="1:26" ht="41.25" customHeight="1">
+      <c r="U9" s="39"/>
+      <c r="V9" s="37"/>
+    </row>
+    <row r="10" spans="1:22" ht="41.25" customHeight="1">
       <c r="A10" s="37"/>
       <c r="B10" s="42"/>
       <c r="C10" s="42"/>
       <c r="D10" s="42"/>
       <c r="E10" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="38" t="s">
         <v>47</v>
-      </c>
-      <c r="F10" s="38" t="s">
-        <v>49</v>
       </c>
       <c r="G10" s="39">
         <v>0</v>
@@ -1659,11 +1610,11 @@
       <c r="J10" s="33"/>
       <c r="K10" s="33"/>
       <c r="L10" s="60" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M10" s="39"/>
       <c r="N10" s="61" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O10" s="39"/>
       <c r="P10" s="39"/>
@@ -1671,26 +1622,19 @@
       <c r="R10" s="39"/>
       <c r="S10" s="37"/>
       <c r="T10" s="39"/>
-      <c r="U10" s="37"/>
-      <c r="W10" s="33"/>
-      <c r="X10" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y10" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z10" s="33"/>
-    </row>
-    <row r="11" spans="1:26" ht="39.75" customHeight="1">
+      <c r="U10" s="39"/>
+      <c r="V10" s="37"/>
+    </row>
+    <row r="11" spans="1:22" ht="39.75" customHeight="1">
       <c r="A11" s="37"/>
       <c r="B11" s="42"/>
       <c r="C11" s="42"/>
       <c r="D11" s="42"/>
       <c r="E11" s="37" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F11" s="38" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G11" s="39">
         <v>0</v>
@@ -1702,11 +1646,11 @@
       <c r="J11" s="33"/>
       <c r="K11" s="47"/>
       <c r="L11" s="60" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M11" s="39"/>
       <c r="N11" s="61" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O11" s="39"/>
       <c r="P11" s="39"/>
@@ -1714,17 +1658,10 @@
       <c r="R11" s="39"/>
       <c r="S11" s="37"/>
       <c r="T11" s="39"/>
-      <c r="U11" s="37"/>
-      <c r="W11" s="33"/>
-      <c r="X11" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y11" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z11" s="33"/>
-    </row>
-    <row r="12" spans="1:26" ht="27.75" customHeight="1">
+      <c r="U11" s="39"/>
+      <c r="V11" s="37"/>
+    </row>
+    <row r="12" spans="1:22" ht="27.75" customHeight="1">
       <c r="A12" s="37"/>
       <c r="B12" s="42"/>
       <c r="C12" s="42"/>
@@ -1733,7 +1670,7 @@
         <v>33</v>
       </c>
       <c r="F12" s="38" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G12" s="39">
         <v>0</v>
@@ -1742,16 +1679,16 @@
         <v>18720000</v>
       </c>
       <c r="I12" s="41" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J12" s="33"/>
       <c r="K12" s="33"/>
       <c r="L12" s="60" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M12" s="39"/>
       <c r="N12" s="61" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O12" s="39"/>
       <c r="P12" s="39"/>
@@ -1759,26 +1696,19 @@
       <c r="R12" s="39"/>
       <c r="S12" s="37"/>
       <c r="T12" s="39"/>
-      <c r="U12" s="37"/>
-      <c r="W12" s="33"/>
-      <c r="X12" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y12" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z12" s="33"/>
-    </row>
-    <row r="13" spans="1:26" ht="24.75" customHeight="1">
+      <c r="U12" s="39"/>
+      <c r="V12" s="37"/>
+    </row>
+    <row r="13" spans="1:22" ht="24.75" customHeight="1">
       <c r="A13" s="37"/>
       <c r="B13" s="42"/>
       <c r="C13" s="42"/>
       <c r="D13" s="42"/>
       <c r="E13" s="37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F13" s="38" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G13" s="39">
         <v>0</v>
@@ -1790,11 +1720,11 @@
       <c r="J13" s="33"/>
       <c r="K13" s="33"/>
       <c r="L13" s="60" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M13" s="39"/>
       <c r="N13" s="61" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O13" s="39"/>
       <c r="P13" s="39"/>
@@ -1802,26 +1732,19 @@
       <c r="R13" s="39"/>
       <c r="S13" s="37"/>
       <c r="T13" s="39"/>
-      <c r="U13" s="37"/>
-      <c r="W13" s="33"/>
-      <c r="X13" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y13" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z13" s="33"/>
-    </row>
-    <row r="14" spans="1:26" ht="20.25" customHeight="1">
+      <c r="U13" s="39"/>
+      <c r="V13" s="37"/>
+    </row>
+    <row r="14" spans="1:22" ht="20.25" customHeight="1">
       <c r="A14" s="37"/>
       <c r="B14" s="42"/>
       <c r="C14" s="42"/>
       <c r="D14" s="42"/>
       <c r="E14" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" s="49" t="s">
         <v>39</v>
-      </c>
-      <c r="F14" s="49" t="s">
-        <v>40</v>
       </c>
       <c r="G14" s="39">
         <v>0</v>
@@ -1833,11 +1756,11 @@
       <c r="J14" s="33"/>
       <c r="K14" s="33"/>
       <c r="L14" s="60" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M14" s="39"/>
       <c r="N14" s="61" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O14" s="39"/>
       <c r="P14" s="39"/>
@@ -1845,26 +1768,19 @@
       <c r="R14" s="39"/>
       <c r="S14" s="37"/>
       <c r="T14" s="39"/>
-      <c r="U14" s="37"/>
-      <c r="W14" s="33"/>
-      <c r="X14" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y14" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z14" s="33"/>
-    </row>
-    <row r="15" spans="1:26" ht="20.25" customHeight="1">
+      <c r="U14" s="39"/>
+      <c r="V14" s="37"/>
+    </row>
+    <row r="15" spans="1:22" ht="20.25" customHeight="1">
       <c r="A15" s="37"/>
       <c r="B15" s="42"/>
       <c r="C15" s="42"/>
       <c r="D15" s="42"/>
       <c r="E15" s="50" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="F15" s="49" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G15" s="39">
         <v>0</v>
@@ -1873,43 +1789,38 @@
         <v>6500000</v>
       </c>
       <c r="I15" s="41" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J15" s="33"/>
       <c r="K15" s="33"/>
       <c r="L15" s="60" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M15" s="39"/>
       <c r="N15" s="61" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O15" s="39"/>
       <c r="P15" s="39"/>
       <c r="Q15" s="39"/>
       <c r="R15" s="39"/>
       <c r="S15" s="37"/>
-      <c r="T15" s="39"/>
-      <c r="U15" s="37"/>
-      <c r="W15" s="33"/>
-      <c r="X15" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y15" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z15" s="33"/>
-    </row>
-    <row r="16" spans="1:26" ht="45.75">
+      <c r="T15" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="U15" s="39"/>
+      <c r="V15" s="37"/>
+    </row>
+    <row r="16" spans="1:22" ht="45.75">
       <c r="A16" s="37"/>
       <c r="B16" s="42"/>
       <c r="C16" s="42"/>
       <c r="D16" s="42"/>
       <c r="E16" s="37" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F16" s="49" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G16" s="39">
         <v>0</v>
@@ -1921,11 +1832,11 @@
       <c r="J16" s="33"/>
       <c r="K16" s="33"/>
       <c r="L16" s="60" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M16" s="39"/>
       <c r="N16" s="61" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O16" s="39"/>
       <c r="P16" s="39"/>
@@ -1933,26 +1844,19 @@
       <c r="R16" s="39"/>
       <c r="S16" s="37"/>
       <c r="T16" s="39"/>
-      <c r="U16" s="37"/>
-      <c r="W16" s="33"/>
-      <c r="X16" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y16" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z16" s="33"/>
-    </row>
-    <row r="17" spans="1:26" ht="45.75">
+      <c r="U16" s="39"/>
+      <c r="V16" s="37"/>
+    </row>
+    <row r="17" spans="1:22" ht="45.75">
       <c r="A17" s="37"/>
       <c r="B17" s="42"/>
       <c r="C17" s="42"/>
       <c r="D17" s="42"/>
       <c r="E17" s="37" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F17" s="49" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G17" s="39">
         <v>0</v>
@@ -1964,11 +1868,11 @@
       <c r="J17" s="33"/>
       <c r="K17" s="33"/>
       <c r="L17" s="60" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M17" s="39"/>
       <c r="N17" s="61" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O17" s="39"/>
       <c r="P17" s="39"/>
@@ -1976,26 +1880,19 @@
       <c r="R17" s="39"/>
       <c r="S17" s="37"/>
       <c r="T17" s="39"/>
-      <c r="U17" s="37"/>
-      <c r="W17" s="33"/>
-      <c r="X17" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y17" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z17" s="33"/>
-    </row>
-    <row r="18" spans="1:26" ht="45.75">
+      <c r="U17" s="39"/>
+      <c r="V17" s="37"/>
+    </row>
+    <row r="18" spans="1:22" ht="45.75">
       <c r="A18" s="37"/>
       <c r="B18" s="42"/>
       <c r="C18" s="42"/>
       <c r="D18" s="42"/>
       <c r="E18" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="F18" s="49" t="s">
         <v>47</v>
-      </c>
-      <c r="F18" s="49" t="s">
-        <v>49</v>
       </c>
       <c r="G18" s="39">
         <v>0</v>
@@ -2007,11 +1904,11 @@
       <c r="J18" s="33"/>
       <c r="K18" s="33"/>
       <c r="L18" s="60" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M18" s="39"/>
       <c r="N18" s="61" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O18" s="39"/>
       <c r="P18" s="39"/>
@@ -2019,26 +1916,19 @@
       <c r="R18" s="39"/>
       <c r="S18" s="37"/>
       <c r="T18" s="39"/>
-      <c r="U18" s="37"/>
-      <c r="W18" s="33"/>
-      <c r="X18" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y18" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z18" s="33"/>
-    </row>
-    <row r="19" spans="1:26" ht="45.75">
+      <c r="U18" s="39"/>
+      <c r="V18" s="37"/>
+    </row>
+    <row r="19" spans="1:22" ht="45.75">
       <c r="A19" s="37"/>
       <c r="B19" s="42"/>
       <c r="C19" s="42"/>
       <c r="D19" s="42"/>
       <c r="E19" s="37" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F19" s="49" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G19" s="39">
         <v>0</v>
@@ -2050,11 +1940,11 @@
       <c r="J19" s="33"/>
       <c r="K19" s="33"/>
       <c r="L19" s="60" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M19" s="39"/>
       <c r="N19" s="61" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O19" s="39"/>
       <c r="P19" s="39"/>
@@ -2062,50 +1952,43 @@
       <c r="R19" s="39"/>
       <c r="S19" s="37"/>
       <c r="T19" s="39"/>
-      <c r="U19" s="37"/>
-      <c r="W19" s="33"/>
-      <c r="X19" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y19" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z19" s="33"/>
-    </row>
-    <row r="20" spans="1:26" ht="45.75">
+      <c r="U19" s="39"/>
+      <c r="V19" s="37"/>
+    </row>
+    <row r="20" spans="1:22" ht="45.75">
       <c r="A20" s="50">
         <v>110061</v>
       </c>
       <c r="B20" s="50" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C20" s="34" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D20" s="50">
         <v>2150000</v>
       </c>
       <c r="E20" s="50" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F20" s="52" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G20" s="50"/>
       <c r="H20" s="50">
         <v>2.23</v>
       </c>
       <c r="I20" s="53" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J20" s="33"/>
       <c r="K20" s="33"/>
       <c r="L20" s="60" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M20" s="39"/>
       <c r="N20" s="61" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O20" s="39"/>
       <c r="P20" s="39"/>
@@ -2113,17 +1996,10 @@
       <c r="R20" s="39"/>
       <c r="S20" s="37"/>
       <c r="T20" s="39"/>
-      <c r="U20" s="37"/>
-      <c r="W20" s="33"/>
-      <c r="X20" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y20" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z20" s="33"/>
-    </row>
-    <row r="21" spans="1:26">
+      <c r="U20" s="39"/>
+      <c r="V20" s="37"/>
+    </row>
+    <row r="21" spans="1:22">
       <c r="F21" s="6"/>
       <c r="N21" s="27"/>
       <c r="O21" s="27"/>
@@ -2132,7 +2008,7 @@
       <c r="R21" s="27"/>
       <c r="S21" s="27"/>
     </row>
-    <row r="22" spans="1:26">
+    <row r="22" spans="1:22">
       <c r="F22" s="6"/>
       <c r="N22" s="27"/>
       <c r="O22" s="27"/>
@@ -2141,11 +2017,11 @@
       <c r="R22" s="27"/>
       <c r="S22" s="27"/>
     </row>
-    <row r="23" spans="1:26">
+    <row r="23" spans="1:22">
       <c r="F23" s="6"/>
     </row>
   </sheetData>
-  <dataValidations count="11">
+  <dataValidations count="12">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S21:S22" xr:uid="{1E190A99-9BFF-4CE9-AC67-306E550850B7}">
       <formula1>"Electricity Access, Energy Efficiency, Renewable EnergyEnergy Infrastructure,   Transport, Digital &amp; Data, Clean Cooking, Decarbonization, Hydrogen, Off-Grid, On-Grid"</formula1>
     </dataValidation>
@@ -2155,10 +2031,10 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P20 Q21:Q22" xr:uid="{96AE7F23-217A-4AD9-B279-78255CC36D9A}">
       <formula1>"AMP, PUDC, Solar4Health, Action Opportunities, Italy UNDP Energy Partnership"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O21:P22 Y2:Z20" xr:uid="{7679577C-5057-4CAE-A580-533A5173DCDC}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O21:P22" xr:uid="{7679577C-5057-4CAE-A580-533A5173DCDC}">
       <formula1>"Electricity Access, Energy Efficiency, Clean Cooking, Renewable Energy"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X2:X20 N2:N22" xr:uid="{8BF837C9-DADF-4F73-B2BD-0382CD04DE67}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N22" xr:uid="{8BF837C9-DADF-4F73-B2BD-0382CD04DE67}">
       <formula1>"Accelerating just energy transition, Close the gap on energy access, Scale up energy finance"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O20" xr:uid="{7AFDFACD-238C-4995-A371-0CB44E452D0E}">
@@ -2167,7 +2043,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M20" xr:uid="{46DAB895-E9B1-4522-ABAF-25AE5B633D3B}">
       <formula1>"Finance, Gender, Efficiency, Just, Health"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T2:T20" xr:uid="{178070A3-1F94-4269-9451-493F2770BB30}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2:U20" xr:uid="{178070A3-1F94-4269-9451-493F2770BB30}">
       <formula1>"National, Regional, City, Community"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L20" xr:uid="{4945BA84-8427-4530-86EA-3DBC336EB5D0}">
@@ -2178,6 +2054,9 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:S20" xr:uid="{2832DC64-DEAC-4976-A1E2-F5A781EE6B22}">
       <formula1>"Solar, Wind, Bioenergy, Hydro, Geothermal, Waste, Some Sources, Other, Unknown"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T2:T20" xr:uid="{9FB228AE-3228-45AB-864A-0D934BACE7A9}">
+      <formula1>"Incentives and Support, Derisking Financial Model, Business Model"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
@@ -2205,8 +2084,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{097F89F9-6688-439D-801A-460CC8F3CB71}">
   <dimension ref="A1:T25"/>
   <sheetViews>
-    <sheetView topLeftCell="B14" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2230,7 +2109,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -2260,10 +2139,10 @@
         <v>10</v>
       </c>
       <c r="M1" s="28" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="N1" s="28" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="P1" s="27" t="s">
         <v>13</v>
@@ -2286,10 +2165,10 @@
         <v>144953</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E2" s="6">
         <v>95000</v>
@@ -2301,10 +2180,10 @@
       <c r="J2" s="3"/>
       <c r="N2" s="31"/>
       <c r="P2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q2" t="s">
-        <v>30</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -2318,15 +2197,15 @@
         <v>32</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F3" s="6"/>
       <c r="N3" s="31"/>
       <c r="P3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Q3" t="s">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="S3" s="27"/>
       <c r="T3" s="27"/>
@@ -2335,15 +2214,15 @@
       <c r="A4" s="6"/>
       <c r="B4" s="32"/>
       <c r="C4" s="63" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D4" s="32"/>
       <c r="E4" s="32"/>
       <c r="F4" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="H4" s="9">
         <v>0</v>
@@ -2354,10 +2233,10 @@
       </c>
       <c r="N4" s="31"/>
       <c r="P4" t="s">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="Q4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="S4" s="27"/>
       <c r="T4" s="27"/>
@@ -2369,10 +2248,10 @@
       <c r="D5" s="32"/>
       <c r="E5" s="32"/>
       <c r="F5" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>38</v>
       </c>
       <c r="H5" s="9">
         <v>0</v>
@@ -2382,10 +2261,10 @@
       </c>
       <c r="N5" s="31"/>
       <c r="P5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q5" t="s">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="S5" s="27"/>
       <c r="T5" s="27"/>
@@ -2397,10 +2276,10 @@
       <c r="D6" s="32"/>
       <c r="E6" s="32"/>
       <c r="F6" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="8" t="s">
         <v>39</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>40</v>
       </c>
       <c r="H6" s="9">
         <v>0</v>
@@ -2410,10 +2289,10 @@
       </c>
       <c r="N6" s="31"/>
       <c r="P6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q6" t="s">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="S6" s="27"/>
       <c r="T6" s="27"/>
@@ -2425,10 +2304,10 @@
       <c r="D7" s="32"/>
       <c r="E7" s="32"/>
       <c r="F7" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="8" t="s">
         <v>41</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>42</v>
       </c>
       <c r="H7" s="9">
         <v>0</v>
@@ -2438,10 +2317,10 @@
       </c>
       <c r="N7" s="31"/>
       <c r="P7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q7" t="s">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="S7" s="27"/>
       <c r="T7" s="27"/>
@@ -2453,10 +2332,10 @@
       <c r="D8" s="32"/>
       <c r="E8" s="32"/>
       <c r="F8" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H8" s="9">
         <v>0</v>
@@ -2467,10 +2346,10 @@
       </c>
       <c r="N8" s="31"/>
       <c r="P8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q8" t="s">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="S8" s="27"/>
       <c r="T8" s="27"/>
@@ -2482,10 +2361,10 @@
       <c r="D9" s="32"/>
       <c r="E9" s="32"/>
       <c r="F9" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H9" s="9">
         <v>0</v>
@@ -2496,10 +2375,10 @@
       </c>
       <c r="N9" s="31"/>
       <c r="P9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q9" t="s">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="S9" s="27"/>
       <c r="T9" s="27"/>
@@ -2511,10 +2390,10 @@
       <c r="D10" s="32"/>
       <c r="E10" s="32"/>
       <c r="F10" s="6" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H10" s="9">
         <v>0</v>
@@ -2524,10 +2403,10 @@
       </c>
       <c r="N10" s="31"/>
       <c r="P10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q10" t="s">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="S10" s="27"/>
       <c r="T10" s="27"/>
@@ -2539,10 +2418,10 @@
       <c r="D11" s="32"/>
       <c r="E11" s="32"/>
       <c r="F11" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>49</v>
       </c>
       <c r="H11" s="9">
         <v>0</v>
@@ -2552,10 +2431,10 @@
       </c>
       <c r="N11" s="31"/>
       <c r="P11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q11" t="s">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="S11" s="27"/>
       <c r="T11" s="27"/>
@@ -2567,10 +2446,10 @@
       <c r="D12" s="32"/>
       <c r="E12" s="32"/>
       <c r="F12" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H12" s="9">
         <v>0</v>
@@ -2581,10 +2460,10 @@
       <c r="L12" s="5"/>
       <c r="N12" s="31"/>
       <c r="P12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q12" t="s">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="S12" s="27"/>
       <c r="T12" s="27"/>
@@ -2593,27 +2472,27 @@
       <c r="A13" s="6"/>
       <c r="B13" s="32"/>
       <c r="C13" s="63" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D13" s="32"/>
       <c r="E13" s="32"/>
       <c r="F13" s="6"/>
       <c r="G13" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H13" s="9">
         <v>0</v>
       </c>
       <c r="I13" s="13"/>
       <c r="J13" s="29" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="N13" s="31"/>
       <c r="P13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q13" t="s">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="S13" s="27"/>
       <c r="T13" s="27"/>
@@ -2625,10 +2504,10 @@
       <c r="D14" s="32"/>
       <c r="E14" s="32"/>
       <c r="F14" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H14" s="9">
         <v>0</v>
@@ -2638,10 +2517,10 @@
       </c>
       <c r="N14" s="31"/>
       <c r="P14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q14" t="s">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="S14" s="27"/>
       <c r="T14" s="27"/>
@@ -2653,10 +2532,10 @@
       <c r="D15" s="32"/>
       <c r="E15" s="32"/>
       <c r="F15" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" s="4" t="s">
         <v>39</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>40</v>
       </c>
       <c r="H15" s="9">
         <v>0</v>
@@ -2666,10 +2545,10 @@
       </c>
       <c r="N15" s="31"/>
       <c r="P15" t="s">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="Q15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="S15" s="27"/>
       <c r="T15" s="27"/>
@@ -2682,21 +2561,21 @@
       <c r="E16" s="32"/>
       <c r="F16" s="16"/>
       <c r="G16" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H16" s="9">
         <v>0</v>
       </c>
       <c r="I16" s="13"/>
       <c r="J16" s="29" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="N16" s="31"/>
       <c r="P16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q16" t="s">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="S16" s="27"/>
       <c r="T16" s="27"/>
@@ -2708,10 +2587,10 @@
       <c r="D17" s="32"/>
       <c r="E17" s="32"/>
       <c r="F17" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H17" s="9">
         <v>0</v>
@@ -2721,10 +2600,10 @@
       </c>
       <c r="N17" s="31"/>
       <c r="P17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q17" t="s">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="S17" s="27"/>
       <c r="T17" s="27"/>
@@ -2736,10 +2615,10 @@
       <c r="D18" s="32"/>
       <c r="E18" s="32"/>
       <c r="F18" s="6" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H18" s="9">
         <v>0</v>
@@ -2749,10 +2628,10 @@
       </c>
       <c r="N18" s="31"/>
       <c r="P18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q18" t="s">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="S18" s="27"/>
       <c r="T18" s="27"/>
@@ -2764,10 +2643,10 @@
       <c r="D19" s="32"/>
       <c r="E19" s="32"/>
       <c r="F19" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G19" s="4" t="s">
         <v>47</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>49</v>
       </c>
       <c r="H19" s="9">
         <v>0</v>
@@ -2777,10 +2656,10 @@
       </c>
       <c r="N19" s="31"/>
       <c r="P19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q19" t="s">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="S19" s="27"/>
       <c r="T19" s="27"/>
@@ -2792,10 +2671,10 @@
       <c r="D20" s="32"/>
       <c r="E20" s="32"/>
       <c r="F20" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H20" s="9">
         <v>0</v>
@@ -2806,10 +2685,10 @@
       <c r="J20" s="15"/>
       <c r="N20" s="31"/>
       <c r="P20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q20" t="s">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="S20" s="27"/>
       <c r="T20" s="27"/>
@@ -2819,14 +2698,14 @@
         <v>110061</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C21" s="18"/>
       <c r="D21" s="19" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E21" s="18" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F21" s="18"/>
       <c r="G21" s="20"/>
@@ -2835,10 +2714,10 @@
       <c r="J21" s="16"/>
       <c r="N21" s="31"/>
       <c r="P21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q21" t="s">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="S21" s="27"/>
       <c r="T21" s="27"/>
@@ -2848,19 +2727,19 @@
         <v>109164</v>
       </c>
       <c r="B22" s="62" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C22" s="62"/>
       <c r="D22" s="62"/>
       <c r="E22" s="62"/>
       <c r="F22" s="23" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G22" s="24" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H22" s="23" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I22" s="25">
         <v>3.33</v>
@@ -2868,10 +2747,10 @@
       <c r="J22" s="16"/>
       <c r="N22" s="31"/>
       <c r="P22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q22" t="s">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="S22" s="27"/>
       <c r="T22" s="27"/>
@@ -2997,10 +2876,10 @@
         <v>144953</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" s="6">
         <v>95000</v>
@@ -3022,10 +2901,10 @@
         <v>32</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="39.75" customHeight="1">
@@ -3033,15 +2912,15 @@
         <v>144270</v>
       </c>
       <c r="B4" s="65" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C4" s="65"/>
       <c r="D4" s="65"/>
       <c r="E4" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G4" s="9">
         <v>0</v>
@@ -3056,16 +2935,16 @@
       <c r="C5" s="65"/>
       <c r="D5" s="65"/>
       <c r="E5" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G5" s="9">
         <v>0</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -3074,16 +2953,16 @@
       <c r="C6" s="65"/>
       <c r="D6" s="65"/>
       <c r="E6" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="F6" s="8" t="s">
-        <v>40</v>
-      </c>
       <c r="G6" s="9">
         <v>0</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="40.5" customHeight="1">
@@ -3092,10 +2971,10 @@
       <c r="C7" s="65"/>
       <c r="D7" s="65"/>
       <c r="E7" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="8" t="s">
         <v>41</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>42</v>
       </c>
       <c r="G7" s="9">
         <v>0</v>
@@ -3110,10 +2989,10 @@
       <c r="C8" s="65"/>
       <c r="D8" s="65"/>
       <c r="E8" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G8" s="9">
         <v>0</v>
@@ -3128,10 +3007,10 @@
       <c r="C9" s="65"/>
       <c r="D9" s="65"/>
       <c r="E9" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G9" s="9">
         <v>0</v>
@@ -3146,16 +3025,16 @@
       <c r="C10" s="65"/>
       <c r="D10" s="65"/>
       <c r="E10" s="6" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G10" s="9">
         <v>0</v>
       </c>
       <c r="H10" s="13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="41.25" customHeight="1">
@@ -3164,16 +3043,16 @@
       <c r="C11" s="65"/>
       <c r="D11" s="65"/>
       <c r="E11" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>49</v>
-      </c>
       <c r="G11" s="9">
         <v>0</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="39.75" customHeight="1">
@@ -3182,16 +3061,16 @@
       <c r="C12" s="65"/>
       <c r="D12" s="65"/>
       <c r="E12" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G12" s="9">
         <v>0</v>
       </c>
       <c r="H12" s="13" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K12" s="5"/>
     </row>
@@ -3200,21 +3079,21 @@
         <v>144270</v>
       </c>
       <c r="B13" s="65" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C13" s="65"/>
       <c r="D13" s="65"/>
       <c r="E13" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G13" s="9">
         <v>0</v>
       </c>
       <c r="H13" s="13" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="24.75" customHeight="1">
@@ -3223,16 +3102,16 @@
       <c r="C14" s="65"/>
       <c r="D14" s="65"/>
       <c r="E14" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G14" s="9">
         <v>0</v>
       </c>
       <c r="H14" s="12" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="20.25" customHeight="1">
@@ -3241,16 +3120,16 @@
       <c r="C15" s="65"/>
       <c r="D15" s="65"/>
       <c r="E15" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F15" s="4" t="s">
-        <v>40</v>
-      </c>
       <c r="G15" s="9">
         <v>0</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="20.25" customHeight="1">
@@ -3259,16 +3138,16 @@
       <c r="C16" s="65"/>
       <c r="D16" s="65"/>
       <c r="E16" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G16" s="9">
         <v>0</v>
       </c>
       <c r="H16" s="13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="27">
@@ -3277,10 +3156,10 @@
       <c r="C17" s="65"/>
       <c r="D17" s="65"/>
       <c r="E17" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G17" s="9">
         <v>0</v>
@@ -3295,16 +3174,16 @@
       <c r="C18" s="65"/>
       <c r="D18" s="65"/>
       <c r="E18" s="6" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G18" s="9">
         <v>0</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="27">
@@ -3313,16 +3192,16 @@
       <c r="C19" s="65"/>
       <c r="D19" s="65"/>
       <c r="E19" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F19" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="F19" s="4" t="s">
-        <v>49</v>
-      </c>
       <c r="G19" s="9">
         <v>0</v>
       </c>
       <c r="H19" s="13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="27">
@@ -3331,10 +3210,10 @@
       <c r="C20" s="65"/>
       <c r="D20" s="65"/>
       <c r="E20" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G20" s="9">
         <v>0</v>
@@ -3349,13 +3228,13 @@
         <v>110061</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E21" s="18"/>
       <c r="F21" s="20"/>
@@ -3368,21 +3247,21 @@
         <v>109164</v>
       </c>
       <c r="B22" s="67" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C22" s="67"/>
       <c r="D22" s="67"/>
       <c r="E22" s="23" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F22" s="24" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G22" s="23" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H22" s="25" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I22" s="16"/>
     </row>
@@ -3428,7 +3307,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A4" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -3445,74 +3324,74 @@
     </row>
     <row r="2" spans="1:2" ht="45.75">
       <c r="A2" s="68" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B2" s="55" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="68" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B3" s="55" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="30.75">
       <c r="A4" s="68" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B4" s="55" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="30.75">
       <c r="A5" s="68" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B5" s="55" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="91.5">
       <c r="A6" s="68" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B6" s="55" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="45.75">
       <c r="A7" s="68" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B7" s="55" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="45.75">
       <c r="A8" s="68" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B8" s="55" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="45.75">
       <c r="A9" s="68" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B9" s="55" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="30.75">
       <c r="A10" s="68" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B10" s="69" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="30.75">
@@ -3520,52 +3399,52 @@
         <v>33</v>
       </c>
       <c r="B11" s="69" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="45.75">
       <c r="A12" s="68" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B12" s="55" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="30.75">
       <c r="A13" s="68" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B13" s="69" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="68" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B14" s="69" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="30.75">
       <c r="A15" s="68" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B15" s="69" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="30.75">
       <c r="A16" s="68" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B16" s="69" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="30.75">
       <c r="A17" s="68" t="s">
-        <v>116</v>
+        <v>45</v>
       </c>
       <c r="B17" s="55" t="s">
         <v>117</v>
@@ -3581,7 +3460,7 @@
     </row>
     <row r="19" spans="1:2" ht="76.5">
       <c r="A19" s="68" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="B19" s="69" t="s">
         <v>120</v>
@@ -3589,7 +3468,7 @@
     </row>
     <row r="20" spans="1:2" ht="30.75">
       <c r="A20" s="68" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B20" s="69" t="s">
         <v>121</v>
@@ -3597,7 +3476,7 @@
     </row>
     <row r="21" spans="1:2" ht="45.75">
       <c r="A21" s="68" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21" s="70" t="s">
         <v>122</v>
@@ -3626,8 +3505,8 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010081A889D055969F449BCDADF9B8A9C0F0" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0d2b1cfbe0bead55dc04bff20486709a">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="720239d0-7d3a-4257-bb40-a2a3b1409bb2" xmlns:ns3="fb9e4d32-074f-4c04-81ef-e811753dfd59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a3ed273af6605fa6a207dd3965c2d078" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010081A889D055969F449BCDADF9B8A9C0F0" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="dd25160c21e587dbb66203dfb8c7aa52">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="720239d0-7d3a-4257-bb40-a2a3b1409bb2" xmlns:ns3="fb9e4d32-074f-4c04-81ef-e811753dfd59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="05ccd5be12d50c438f9536854e894bcb" ns2:_="" ns3:_="">
     <xsd:import namespace="720239d0-7d3a-4257-bb40-a2a3b1409bb2"/>
     <xsd:import namespace="fb9e4d32-074f-4c04-81ef-e811753dfd59"/>
     <xsd:element name="properties">
@@ -3652,6 +3531,7 @@
                 <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
                 <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -3731,6 +3611,11 @@
     <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="24" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="25" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -3890,7 +3775,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{027502D3-96EC-47DD-8A36-DB96D446584B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61DB48B0-5F5D-4664-9BF2-2988CF8E9CA6}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
